--- a/BASE DADES QS.xlsx
+++ b/BASE DADES QS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmora\TFG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uab-my.sharepoint.com/personal/1568088_uab_cat/Documents/Escritorio/UAB/4º/TFG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E36629-84AA-4B8D-A524-D218B52CCAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{58E36629-84AA-4B8D-A524-D218B52CCAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8266928-0BEC-47D3-A1B5-4D03680D02A3}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{449A03E3-1FBD-4951-9BEF-09045DC47E0D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="1627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5070" uniqueCount="1626">
   <si>
     <t>Columna4</t>
   </si>
@@ -3279,9 +3279,6 @@
   </si>
   <si>
     <t>9.9L1</t>
-  </si>
-  <si>
-    <t>175?</t>
   </si>
   <si>
     <t>P36</t>
@@ -5392,8 +5389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65185E64-6F08-4644-BE41-B0356BDC1431}">
   <dimension ref="A1:S3118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A3091" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2634" sqref="M2634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5442,22 +5439,22 @@
         <v>843</v>
       </c>
       <c r="N1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="O1" t="s">
         <v>1204</v>
       </c>
-      <c r="O1" t="s">
-        <v>1205</v>
-      </c>
       <c r="P1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="Q1" t="s">
         <v>1207</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>1208</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1209</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
@@ -56353,9 +56350,7 @@
       <c r="F2304" t="s">
         <v>1080</v>
       </c>
-      <c r="G2304" t="s">
-        <v>1081</v>
-      </c>
+      <c r="G2304" s="2"/>
     </row>
     <row r="2305" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2305">
@@ -56456,9 +56451,7 @@
       <c r="F2309" t="s">
         <v>915</v>
       </c>
-      <c r="G2309" t="s">
-        <v>954</v>
-      </c>
+      <c r="G2309" s="2"/>
     </row>
     <row r="2310" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2310">
@@ -56471,7 +56464,7 @@
         <v>2130026</v>
       </c>
       <c r="F2310" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G2310">
         <v>112</v>
@@ -56511,7 +56504,7 @@
         <v>2130026</v>
       </c>
       <c r="F2312" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G2312">
         <v>111</v>
@@ -56557,7 +56550,7 @@
         <v>2130026</v>
       </c>
       <c r="F2314" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G2314">
         <v>111</v>
@@ -56577,10 +56570,10 @@
         <v>1</v>
       </c>
       <c r="C2316" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F2316" t="s">
         <v>1085</v>
-      </c>
-      <c r="F2316" t="s">
-        <v>1086</v>
       </c>
       <c r="G2316">
         <v>132</v>
@@ -56600,10 +56593,10 @@
         <v>2</v>
       </c>
       <c r="C2317" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2317" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G2317">
         <v>132</v>
@@ -56623,10 +56616,10 @@
         <v>3</v>
       </c>
       <c r="C2318" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2318" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G2318">
         <v>132</v>
@@ -56646,10 +56639,10 @@
         <v>4</v>
       </c>
       <c r="C2319" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2319" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G2319">
         <v>141</v>
@@ -56666,10 +56659,10 @@
         <v>5</v>
       </c>
       <c r="C2320" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2320" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G2320">
         <v>132</v>
@@ -56689,10 +56682,10 @@
         <v>6</v>
       </c>
       <c r="C2321" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2321" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G2321">
         <v>132</v>
@@ -56715,10 +56708,10 @@
         <v>7</v>
       </c>
       <c r="C2322" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2322" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G2322">
         <v>12</v>
@@ -56735,10 +56728,10 @@
         <v>8</v>
       </c>
       <c r="C2323" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2323" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G2323">
         <v>132</v>
@@ -56758,10 +56751,10 @@
         <v>9</v>
       </c>
       <c r="C2324" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2324" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G2324">
         <v>23</v>
@@ -56784,10 +56777,10 @@
         <v>10</v>
       </c>
       <c r="C2325" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2325" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G2325">
         <v>140</v>
@@ -56804,10 +56797,10 @@
         <v>11</v>
       </c>
       <c r="C2326" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2326" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G2326">
         <v>132</v>
@@ -56827,10 +56820,10 @@
         <v>12</v>
       </c>
       <c r="C2327" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2327" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G2327">
         <v>132</v>
@@ -56850,10 +56843,10 @@
         <v>13</v>
       </c>
       <c r="C2328" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2328" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G2328">
         <v>132</v>
@@ -56868,7 +56861,7 @@
         <v>1</v>
       </c>
       <c r="K2328" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="2329" spans="1:11" x14ac:dyDescent="0.45">
@@ -56879,10 +56872,10 @@
         <v>14</v>
       </c>
       <c r="C2329" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2329" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G2329">
         <v>132</v>
@@ -56902,10 +56895,10 @@
         <v>15</v>
       </c>
       <c r="C2330" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2330" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G2330">
         <v>132</v>
@@ -56928,10 +56921,10 @@
         <v>16</v>
       </c>
       <c r="C2331" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2331" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G2331">
         <v>87</v>
@@ -56951,10 +56944,10 @@
         <v>17</v>
       </c>
       <c r="C2332" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2332" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G2332">
         <v>85</v>
@@ -56974,10 +56967,10 @@
         <v>18</v>
       </c>
       <c r="C2333" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2333" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G2333">
         <v>85</v>
@@ -56997,10 +56990,10 @@
         <v>19</v>
       </c>
       <c r="C2334" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2334" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G2334">
         <v>85</v>
@@ -57020,10 +57013,10 @@
         <v>20</v>
       </c>
       <c r="C2335" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2335" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G2335">
         <v>85</v>
@@ -57046,10 +57039,10 @@
         <v>21</v>
       </c>
       <c r="C2336" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2336" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G2336">
         <v>149</v>
@@ -57069,10 +57062,10 @@
         <v>22</v>
       </c>
       <c r="C2337" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2337" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G2337">
         <v>149</v>
@@ -57092,10 +57085,10 @@
         <v>23</v>
       </c>
       <c r="C2338" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2338" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G2338">
         <v>149</v>
@@ -57115,10 +57108,10 @@
         <v>24</v>
       </c>
       <c r="C2339" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2339" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G2339">
         <v>149</v>
@@ -57138,10 +57131,10 @@
         <v>25</v>
       </c>
       <c r="C2340" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2340" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G2340">
         <v>44</v>
@@ -57161,10 +57154,10 @@
         <v>26</v>
       </c>
       <c r="C2341" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2341" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G2341">
         <v>148</v>
@@ -57184,10 +57177,10 @@
         <v>27</v>
       </c>
       <c r="C2342" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2342" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G2342">
         <v>148</v>
@@ -57207,10 +57200,10 @@
         <v>28</v>
       </c>
       <c r="C2343" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2343" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G2343">
         <v>132</v>
@@ -57230,10 +57223,10 @@
         <v>29</v>
       </c>
       <c r="C2344" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2344" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G2344">
         <v>132</v>
@@ -57253,10 +57246,10 @@
         <v>30</v>
       </c>
       <c r="C2345" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2345" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G2345">
         <v>132</v>
@@ -57276,10 +57269,10 @@
         <v>31</v>
       </c>
       <c r="C2346" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2346" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G2346">
         <v>135</v>
@@ -57299,10 +57292,10 @@
         <v>32</v>
       </c>
       <c r="C2347" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2347" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G2347">
         <v>135</v>
@@ -57319,10 +57312,10 @@
         <v>33</v>
       </c>
       <c r="C2348" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2348" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G2348">
         <v>135</v>
@@ -57334,7 +57327,7 @@
         <v>3200</v>
       </c>
       <c r="K2348" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="2349" spans="1:11" x14ac:dyDescent="0.45">
@@ -57345,10 +57338,10 @@
         <v>34</v>
       </c>
       <c r="C2349" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2349" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G2349">
         <v>135</v>
@@ -57371,10 +57364,10 @@
         <v>35</v>
       </c>
       <c r="C2350" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2350" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G2350">
         <v>135</v>
@@ -57386,7 +57379,7 @@
         <v>3200</v>
       </c>
       <c r="K2350" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="2351" spans="1:11" x14ac:dyDescent="0.45">
@@ -57397,10 +57390,10 @@
         <v>36</v>
       </c>
       <c r="C2351" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2351" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G2351">
         <v>136</v>
@@ -57420,10 +57413,10 @@
         <v>37</v>
       </c>
       <c r="C2352" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2352" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G2352">
         <v>136</v>
@@ -57440,10 +57433,10 @@
         <v>38</v>
       </c>
       <c r="C2353" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2353" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G2353">
         <v>136</v>
@@ -57463,10 +57456,10 @@
         <v>39</v>
       </c>
       <c r="C2354" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2354" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G2354">
         <v>136</v>
@@ -57489,10 +57482,10 @@
         <v>40</v>
       </c>
       <c r="C2355" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2355" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G2355">
         <v>136</v>
@@ -57512,10 +57505,10 @@
         <v>41</v>
       </c>
       <c r="C2356" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2356" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G2356">
         <v>132</v>
@@ -57535,10 +57528,10 @@
         <v>42</v>
       </c>
       <c r="C2357" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2357" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G2357">
         <v>132</v>
@@ -57558,10 +57551,10 @@
         <v>43</v>
       </c>
       <c r="C2358" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2358" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G2358">
         <v>23</v>
@@ -57581,10 +57574,10 @@
         <v>44</v>
       </c>
       <c r="C2359" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2359" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G2359">
         <v>132</v>
@@ -57604,10 +57597,10 @@
         <v>45</v>
       </c>
       <c r="C2360" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2360" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G2360">
         <v>132</v>
@@ -57627,10 +57620,10 @@
         <v>46</v>
       </c>
       <c r="C2361" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2361" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G2361">
         <v>132</v>
@@ -57650,10 +57643,10 @@
         <v>47</v>
       </c>
       <c r="C2362" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2362" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G2362">
         <v>85</v>
@@ -57673,10 +57666,10 @@
         <v>48</v>
       </c>
       <c r="C2363" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2363" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G2363">
         <v>88</v>
@@ -57696,10 +57689,10 @@
         <v>49</v>
       </c>
       <c r="C2364" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2364" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G2364">
         <v>89</v>
@@ -57719,10 +57712,10 @@
         <v>50</v>
       </c>
       <c r="C2365" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2365" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G2365">
         <v>85</v>
@@ -57742,10 +57735,10 @@
         <v>51</v>
       </c>
       <c r="C2366" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2366" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G2366">
         <v>85</v>
@@ -57765,10 +57758,10 @@
         <v>52</v>
       </c>
       <c r="C2367" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2367" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G2367">
         <v>47</v>
@@ -57788,10 +57781,10 @@
         <v>53</v>
       </c>
       <c r="C2368" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2368" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G2368">
         <v>150</v>
@@ -57811,10 +57804,10 @@
         <v>54</v>
       </c>
       <c r="C2369" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2369" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G2369">
         <v>149</v>
@@ -57834,10 +57827,10 @@
         <v>55</v>
       </c>
       <c r="C2370" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2370" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G2370">
         <v>148</v>
@@ -57857,10 +57850,10 @@
         <v>56</v>
       </c>
       <c r="C2371" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2371" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G2371">
         <v>152</v>
@@ -57880,10 +57873,10 @@
         <v>57</v>
       </c>
       <c r="C2372" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2372" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G2372">
         <v>152</v>
@@ -57903,10 +57896,10 @@
         <v>58</v>
       </c>
       <c r="C2373" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2373" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G2373">
         <v>152</v>
@@ -57926,10 +57919,10 @@
         <v>59</v>
       </c>
       <c r="C2374" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2374" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G2374">
         <v>154</v>
@@ -57949,10 +57942,10 @@
         <v>60</v>
       </c>
       <c r="C2375" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2375" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G2375">
         <v>154</v>
@@ -57972,10 +57965,10 @@
         <v>61</v>
       </c>
       <c r="C2376" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2376" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G2376">
         <v>154</v>
@@ -57995,10 +57988,10 @@
         <v>62</v>
       </c>
       <c r="C2377" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2377" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G2377">
         <v>149</v>
@@ -58018,10 +58011,10 @@
         <v>63</v>
       </c>
       <c r="C2378" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2378" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G2378">
         <v>133</v>
@@ -58044,10 +58037,10 @@
         <v>64</v>
       </c>
       <c r="C2379" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2379" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G2379">
         <v>137</v>
@@ -58064,10 +58057,10 @@
         <v>65</v>
       </c>
       <c r="C2380" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2380" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G2380">
         <v>124</v>
@@ -58087,10 +58080,10 @@
         <v>66</v>
       </c>
       <c r="C2381" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2381" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G2381">
         <v>136</v>
@@ -58110,10 +58103,10 @@
         <v>67</v>
       </c>
       <c r="C2382" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2382" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G2382">
         <v>135</v>
@@ -58133,10 +58126,10 @@
         <v>68</v>
       </c>
       <c r="C2383" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2383" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G2383">
         <v>135</v>
@@ -58156,10 +58149,10 @@
         <v>69</v>
       </c>
       <c r="C2384" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2384" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G2384">
         <v>136</v>
@@ -58179,10 +58172,10 @@
         <v>70</v>
       </c>
       <c r="C2385" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2385" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G2385">
         <v>144</v>
@@ -58202,10 +58195,10 @@
         <v>71</v>
       </c>
       <c r="C2386" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2386" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G2386">
         <v>152</v>
@@ -58225,10 +58218,10 @@
         <v>72</v>
       </c>
       <c r="C2387" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2387" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G2387">
         <v>153</v>
@@ -58248,10 +58241,10 @@
         <v>73</v>
       </c>
       <c r="C2388" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2388" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G2388">
         <v>136</v>
@@ -58271,10 +58264,10 @@
         <v>74</v>
       </c>
       <c r="C2389" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2389" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G2389">
         <v>155</v>
@@ -58294,10 +58287,10 @@
         <v>75</v>
       </c>
       <c r="C2390" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2390" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G2390">
         <v>180</v>
@@ -58311,10 +58304,10 @@
         <v>76</v>
       </c>
       <c r="C2391" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2391" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G2391">
         <v>90</v>
@@ -58337,10 +58330,10 @@
         <v>77</v>
       </c>
       <c r="C2392" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2392" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G2392">
         <v>133</v>
@@ -58363,10 +58356,10 @@
         <v>78</v>
       </c>
       <c r="C2393" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2393" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G2393">
         <v>133</v>
@@ -58389,10 +58382,10 @@
         <v>79</v>
       </c>
       <c r="C2394" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2394" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G2394">
         <v>24</v>
@@ -58415,10 +58408,10 @@
         <v>80</v>
       </c>
       <c r="C2395" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2395" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G2395" s="2"/>
       <c r="H2395">
@@ -58436,10 +58429,10 @@
         <v>81</v>
       </c>
       <c r="C2396" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2396" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G2396">
         <v>93</v>
@@ -58459,10 +58452,10 @@
         <v>82</v>
       </c>
       <c r="C2397" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2397" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G2397">
         <v>165</v>
@@ -58479,10 +58472,10 @@
         <v>83</v>
       </c>
       <c r="C2398" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2398" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="G2398" t="s">
         <v>884</v>
@@ -58496,10 +58489,10 @@
         <v>84</v>
       </c>
       <c r="C2399" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2399" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="G2399">
         <v>94</v>
@@ -58522,10 +58515,10 @@
         <v>85</v>
       </c>
       <c r="C2400" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F2400" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="G2400" s="2"/>
     </row>
@@ -58543,7 +58536,7 @@
         <v>1</v>
       </c>
       <c r="C2403" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2403">
         <v>1</v>
@@ -58566,7 +58559,7 @@
         <v>2</v>
       </c>
       <c r="C2404" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2404">
         <v>2</v>
@@ -58589,7 +58582,7 @@
         <v>3</v>
       </c>
       <c r="C2405" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2405">
         <v>3</v>
@@ -58612,7 +58605,7 @@
         <v>4</v>
       </c>
       <c r="C2406" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2406">
         <v>4</v>
@@ -58635,7 +58628,7 @@
         <v>5</v>
       </c>
       <c r="C2407" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2407">
         <v>5</v>
@@ -58658,7 +58651,7 @@
         <v>6</v>
       </c>
       <c r="C2408" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2408">
         <v>6</v>
@@ -58681,7 +58674,7 @@
         <v>7</v>
       </c>
       <c r="C2409" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2409">
         <v>7</v>
@@ -58704,7 +58697,7 @@
         <v>8</v>
       </c>
       <c r="C2410" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2410">
         <v>8</v>
@@ -58727,7 +58720,7 @@
         <v>9</v>
       </c>
       <c r="C2411" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2411">
         <v>9</v>
@@ -58750,7 +58743,7 @@
         <v>10</v>
       </c>
       <c r="C2412" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2412">
         <v>10</v>
@@ -58773,7 +58766,7 @@
         <v>11</v>
       </c>
       <c r="C2413" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2413">
         <v>11</v>
@@ -58796,7 +58789,7 @@
         <v>12</v>
       </c>
       <c r="C2414" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2414">
         <v>12</v>
@@ -58819,7 +58812,7 @@
         <v>13</v>
       </c>
       <c r="C2415" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2415">
         <v>13</v>
@@ -58842,7 +58835,7 @@
         <v>14</v>
       </c>
       <c r="C2416" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2416">
         <v>14</v>
@@ -58865,7 +58858,7 @@
         <v>15</v>
       </c>
       <c r="C2417" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2417">
         <v>15</v>
@@ -58888,7 +58881,7 @@
         <v>16</v>
       </c>
       <c r="C2418" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2418">
         <v>16</v>
@@ -58911,7 +58904,7 @@
         <v>17</v>
       </c>
       <c r="C2419" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2419">
         <v>17</v>
@@ -58934,7 +58927,7 @@
         <v>18</v>
       </c>
       <c r="C2420" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2420">
         <v>18</v>
@@ -58957,7 +58950,7 @@
         <v>19</v>
       </c>
       <c r="C2421" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2421">
         <v>19</v>
@@ -58980,7 +58973,7 @@
         <v>20</v>
       </c>
       <c r="C2422" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2422">
         <v>20</v>
@@ -59003,7 +58996,7 @@
         <v>21</v>
       </c>
       <c r="C2423" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2423">
         <v>21</v>
@@ -59026,7 +59019,7 @@
         <v>22</v>
       </c>
       <c r="C2424" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2424">
         <v>22</v>
@@ -59049,7 +59042,7 @@
         <v>23</v>
       </c>
       <c r="C2425" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2425">
         <v>23</v>
@@ -59072,7 +59065,7 @@
         <v>24</v>
       </c>
       <c r="C2426" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2426">
         <v>24</v>
@@ -59095,7 +59088,7 @@
         <v>25</v>
       </c>
       <c r="C2427" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2427">
         <v>25</v>
@@ -59118,7 +59111,7 @@
         <v>26</v>
       </c>
       <c r="C2428" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2428">
         <v>26</v>
@@ -59141,7 +59134,7 @@
         <v>27</v>
       </c>
       <c r="C2429" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2429">
         <v>27</v>
@@ -59164,7 +59157,7 @@
         <v>28</v>
       </c>
       <c r="C2430" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2430">
         <v>28</v>
@@ -59187,7 +59180,7 @@
         <v>29</v>
       </c>
       <c r="C2431" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2431">
         <v>29</v>
@@ -59210,7 +59203,7 @@
         <v>30</v>
       </c>
       <c r="C2432" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2432">
         <v>30</v>
@@ -59233,7 +59226,7 @@
         <v>31</v>
       </c>
       <c r="C2433" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2433">
         <v>31</v>
@@ -59256,7 +59249,7 @@
         <v>32</v>
       </c>
       <c r="C2434" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2434">
         <v>32</v>
@@ -59279,7 +59272,7 @@
         <v>33</v>
       </c>
       <c r="C2435" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2435">
         <v>33</v>
@@ -59302,7 +59295,7 @@
         <v>34</v>
       </c>
       <c r="C2436" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2436">
         <v>34</v>
@@ -59325,7 +59318,7 @@
         <v>35</v>
       </c>
       <c r="C2437" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2437">
         <v>35</v>
@@ -59348,7 +59341,7 @@
         <v>36</v>
       </c>
       <c r="C2438" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2438">
         <v>36</v>
@@ -59371,7 +59364,7 @@
         <v>37</v>
       </c>
       <c r="C2439" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2439">
         <v>37</v>
@@ -59394,7 +59387,7 @@
         <v>38</v>
       </c>
       <c r="C2440" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2440">
         <v>38</v>
@@ -59417,7 +59410,7 @@
         <v>39</v>
       </c>
       <c r="C2441" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2441">
         <v>39</v>
@@ -59440,7 +59433,7 @@
         <v>40</v>
       </c>
       <c r="C2442" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2442">
         <v>40</v>
@@ -59463,7 +59456,7 @@
         <v>41</v>
       </c>
       <c r="C2443" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2443">
         <v>41</v>
@@ -59486,7 +59479,7 @@
         <v>42</v>
       </c>
       <c r="C2444" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2444">
         <v>42</v>
@@ -59509,7 +59502,7 @@
         <v>43</v>
       </c>
       <c r="C2445" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2445">
         <v>43</v>
@@ -59532,7 +59525,7 @@
         <v>44</v>
       </c>
       <c r="C2446" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2446">
         <v>44</v>
@@ -59555,7 +59548,7 @@
         <v>45</v>
       </c>
       <c r="C2447" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2447">
         <v>45</v>
@@ -59578,7 +59571,7 @@
         <v>46</v>
       </c>
       <c r="C2448" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2448">
         <v>46</v>
@@ -59601,7 +59594,7 @@
         <v>47</v>
       </c>
       <c r="C2449" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2449">
         <v>47</v>
@@ -59624,7 +59617,7 @@
         <v>48</v>
       </c>
       <c r="C2450" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2450">
         <v>48</v>
@@ -59647,7 +59640,7 @@
         <v>49</v>
       </c>
       <c r="C2451" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2451">
         <v>49</v>
@@ -59670,7 +59663,7 @@
         <v>50</v>
       </c>
       <c r="C2452" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2452">
         <v>50</v>
@@ -59693,7 +59686,7 @@
         <v>51</v>
       </c>
       <c r="C2453" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2453">
         <v>51</v>
@@ -59716,7 +59709,7 @@
         <v>52</v>
       </c>
       <c r="C2454" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2454">
         <v>52</v>
@@ -59739,7 +59732,7 @@
         <v>53</v>
       </c>
       <c r="C2455" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2455">
         <v>53</v>
@@ -59762,7 +59755,7 @@
         <v>54</v>
       </c>
       <c r="C2456" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2456">
         <v>54</v>
@@ -59785,7 +59778,7 @@
         <v>55</v>
       </c>
       <c r="C2457" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2457">
         <v>55</v>
@@ -59808,7 +59801,7 @@
         <v>56</v>
       </c>
       <c r="C2458" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2458">
         <v>56</v>
@@ -59831,7 +59824,7 @@
         <v>57</v>
       </c>
       <c r="C2459" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2459">
         <v>57</v>
@@ -59854,7 +59847,7 @@
         <v>58</v>
       </c>
       <c r="C2460" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2460">
         <v>58</v>
@@ -59877,7 +59870,7 @@
         <v>59</v>
       </c>
       <c r="C2461" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2461">
         <v>59</v>
@@ -59900,7 +59893,7 @@
         <v>60</v>
       </c>
       <c r="C2462" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2462">
         <v>60</v>
@@ -59923,7 +59916,7 @@
         <v>61</v>
       </c>
       <c r="C2463" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2463">
         <v>61</v>
@@ -59946,7 +59939,7 @@
         <v>62</v>
       </c>
       <c r="C2464" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2464">
         <v>62</v>
@@ -59969,7 +59962,7 @@
         <v>63</v>
       </c>
       <c r="C2465" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2465">
         <v>63</v>
@@ -59992,7 +59985,7 @@
         <v>64</v>
       </c>
       <c r="C2466" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2466">
         <v>64</v>
@@ -60015,7 +60008,7 @@
         <v>65</v>
       </c>
       <c r="C2467" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2467">
         <v>65</v>
@@ -60038,7 +60031,7 @@
         <v>66</v>
       </c>
       <c r="C2468" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2468">
         <v>66</v>
@@ -60061,7 +60054,7 @@
         <v>67</v>
       </c>
       <c r="C2469" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2469">
         <v>67</v>
@@ -60084,7 +60077,7 @@
         <v>68</v>
       </c>
       <c r="C2470" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2470">
         <v>68</v>
@@ -60107,7 +60100,7 @@
         <v>69</v>
       </c>
       <c r="C2471" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2471">
         <v>69</v>
@@ -60130,7 +60123,7 @@
         <v>70</v>
       </c>
       <c r="C2472" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2472">
         <v>70</v>
@@ -60148,7 +60141,7 @@
     <row r="2473" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C2473" s="1"/>
       <c r="F2473" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="2474" spans="1:11" x14ac:dyDescent="0.45">
@@ -60159,7 +60152,7 @@
         <v>71</v>
       </c>
       <c r="C2474" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2474">
         <v>1</v>
@@ -60179,7 +60172,7 @@
         <v>72</v>
       </c>
       <c r="C2475" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2475">
         <v>2</v>
@@ -60199,7 +60192,7 @@
         <v>73</v>
       </c>
       <c r="C2476" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2476">
         <v>3</v>
@@ -60222,7 +60215,7 @@
         <v>74</v>
       </c>
       <c r="C2477" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2477">
         <v>4</v>
@@ -60245,7 +60238,7 @@
         <v>75</v>
       </c>
       <c r="C2478" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2478">
         <v>5</v>
@@ -60260,7 +60253,7 @@
         <v>3211</v>
       </c>
       <c r="K2478" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="2479" spans="1:11" x14ac:dyDescent="0.45">
@@ -60271,7 +60264,7 @@
         <v>76</v>
       </c>
       <c r="C2479" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2479">
         <v>6</v>
@@ -60294,7 +60287,7 @@
         <v>77</v>
       </c>
       <c r="C2480" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2480">
         <v>7</v>
@@ -60317,7 +60310,7 @@
         <v>78</v>
       </c>
       <c r="C2481" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2481">
         <v>8</v>
@@ -60332,7 +60325,7 @@
         <v>3211</v>
       </c>
       <c r="K2481" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="2482" spans="1:11" x14ac:dyDescent="0.45">
@@ -60343,7 +60336,7 @@
         <v>79</v>
       </c>
       <c r="C2482" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2482">
         <v>9</v>
@@ -60366,7 +60359,7 @@
         <v>80</v>
       </c>
       <c r="C2483" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2483">
         <v>10</v>
@@ -60389,7 +60382,7 @@
         <v>81</v>
       </c>
       <c r="C2484" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2484">
         <v>11</v>
@@ -60412,7 +60405,7 @@
         <v>82</v>
       </c>
       <c r="C2485" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2485">
         <v>12</v>
@@ -60435,7 +60428,7 @@
         <v>83</v>
       </c>
       <c r="C2486" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2486">
         <v>13</v>
@@ -60458,7 +60451,7 @@
         <v>84</v>
       </c>
       <c r="C2487" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2487">
         <v>14</v>
@@ -60481,7 +60474,7 @@
         <v>85</v>
       </c>
       <c r="C2488" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2488">
         <v>15</v>
@@ -60504,7 +60497,7 @@
         <v>86</v>
       </c>
       <c r="C2489" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2489">
         <v>16</v>
@@ -60527,7 +60520,7 @@
         <v>87</v>
       </c>
       <c r="C2490" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2490">
         <v>17</v>
@@ -60550,7 +60543,7 @@
         <v>88</v>
       </c>
       <c r="C2491" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2491">
         <v>18</v>
@@ -60573,7 +60566,7 @@
         <v>89</v>
       </c>
       <c r="C2492" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2492">
         <v>19</v>
@@ -60596,7 +60589,7 @@
         <v>90</v>
       </c>
       <c r="C2493" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2493">
         <v>20</v>
@@ -60619,7 +60612,7 @@
         <v>91</v>
       </c>
       <c r="C2494" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2494">
         <v>21</v>
@@ -60642,7 +60635,7 @@
         <v>92</v>
       </c>
       <c r="C2495" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2495">
         <v>22</v>
@@ -60665,7 +60658,7 @@
         <v>93</v>
       </c>
       <c r="C2496" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2496">
         <v>23</v>
@@ -60688,7 +60681,7 @@
         <v>94</v>
       </c>
       <c r="C2497" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2497">
         <v>24</v>
@@ -60711,7 +60704,7 @@
         <v>95</v>
       </c>
       <c r="C2498" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2498">
         <v>25</v>
@@ -60734,7 +60727,7 @@
         <v>96</v>
       </c>
       <c r="C2499" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2499">
         <v>26</v>
@@ -60757,7 +60750,7 @@
         <v>97</v>
       </c>
       <c r="C2500" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2500">
         <v>27</v>
@@ -60780,7 +60773,7 @@
         <v>98</v>
       </c>
       <c r="C2501" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2501">
         <v>28</v>
@@ -60803,7 +60796,7 @@
         <v>99</v>
       </c>
       <c r="C2502" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2502">
         <v>29</v>
@@ -60826,7 +60819,7 @@
         <v>100</v>
       </c>
       <c r="C2503" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2503">
         <v>30</v>
@@ -60849,7 +60842,7 @@
         <v>101</v>
       </c>
       <c r="C2504" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2504">
         <v>31</v>
@@ -60872,7 +60865,7 @@
         <v>102</v>
       </c>
       <c r="C2505" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2505">
         <v>32</v>
@@ -60895,7 +60888,7 @@
         <v>103</v>
       </c>
       <c r="C2506" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2506">
         <v>33</v>
@@ -60918,7 +60911,7 @@
         <v>104</v>
       </c>
       <c r="C2507" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2507">
         <v>34</v>
@@ -60941,7 +60934,7 @@
         <v>105</v>
       </c>
       <c r="C2508" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2508">
         <v>35</v>
@@ -60964,7 +60957,7 @@
         <v>106</v>
       </c>
       <c r="C2509" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2509">
         <v>36</v>
@@ -60987,7 +60980,7 @@
         <v>107</v>
       </c>
       <c r="C2510" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2510">
         <v>37</v>
@@ -61010,7 +61003,7 @@
         <v>108</v>
       </c>
       <c r="C2511" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2511">
         <v>38</v>
@@ -61033,7 +61026,7 @@
         <v>109</v>
       </c>
       <c r="C2512" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2512">
         <v>39</v>
@@ -61056,7 +61049,7 @@
         <v>110</v>
       </c>
       <c r="C2513" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2513">
         <v>40</v>
@@ -61074,7 +61067,7 @@
     <row r="2514" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C2514" s="1"/>
       <c r="F2514" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="2515" spans="1:9" x14ac:dyDescent="0.45">
@@ -61085,7 +61078,7 @@
         <v>111</v>
       </c>
       <c r="C2515" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2515">
         <v>1</v>
@@ -61108,7 +61101,7 @@
         <v>112</v>
       </c>
       <c r="C2516" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2516">
         <v>2</v>
@@ -61131,7 +61124,7 @@
         <v>113</v>
       </c>
       <c r="C2517" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2517">
         <v>3</v>
@@ -61154,7 +61147,7 @@
         <v>114</v>
       </c>
       <c r="C2518" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2518">
         <v>4</v>
@@ -61177,7 +61170,7 @@
         <v>115</v>
       </c>
       <c r="C2519" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2519">
         <v>5</v>
@@ -61200,7 +61193,7 @@
         <v>116</v>
       </c>
       <c r="C2520" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2520">
         <v>6</v>
@@ -61223,7 +61216,7 @@
         <v>117</v>
       </c>
       <c r="C2521" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2521">
         <v>7</v>
@@ -61246,7 +61239,7 @@
         <v>118</v>
       </c>
       <c r="C2522" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2522">
         <v>8</v>
@@ -61269,7 +61262,7 @@
         <v>119</v>
       </c>
       <c r="C2523" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2523">
         <v>9</v>
@@ -61292,7 +61285,7 @@
         <v>120</v>
       </c>
       <c r="C2524" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2524">
         <v>10</v>
@@ -61315,7 +61308,7 @@
         <v>121</v>
       </c>
       <c r="C2525" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2525">
         <v>11</v>
@@ -61338,7 +61331,7 @@
         <v>122</v>
       </c>
       <c r="C2526" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2526">
         <v>12</v>
@@ -61361,7 +61354,7 @@
         <v>123</v>
       </c>
       <c r="C2527" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2527">
         <v>13</v>
@@ -61384,7 +61377,7 @@
         <v>124</v>
       </c>
       <c r="C2528" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2528">
         <v>14</v>
@@ -61407,7 +61400,7 @@
         <v>125</v>
       </c>
       <c r="C2529" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2529">
         <v>15</v>
@@ -61430,7 +61423,7 @@
         <v>126</v>
       </c>
       <c r="C2530" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2530">
         <v>16</v>
@@ -61453,7 +61446,7 @@
         <v>127</v>
       </c>
       <c r="C2531" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2531">
         <v>17</v>
@@ -61476,7 +61469,7 @@
         <v>128</v>
       </c>
       <c r="C2532" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2532">
         <v>18</v>
@@ -61499,7 +61492,7 @@
         <v>129</v>
       </c>
       <c r="C2533" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2533">
         <v>19</v>
@@ -61522,7 +61515,7 @@
         <v>130</v>
       </c>
       <c r="C2534" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2534">
         <v>20</v>
@@ -61545,7 +61538,7 @@
         <v>131</v>
       </c>
       <c r="C2535" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2535">
         <v>21</v>
@@ -61568,7 +61561,7 @@
         <v>132</v>
       </c>
       <c r="C2536" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2536">
         <v>22</v>
@@ -61591,7 +61584,7 @@
         <v>133</v>
       </c>
       <c r="C2537" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2537">
         <v>23</v>
@@ -61614,7 +61607,7 @@
         <v>134</v>
       </c>
       <c r="C2538" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2538">
         <v>24</v>
@@ -61637,7 +61630,7 @@
         <v>135</v>
       </c>
       <c r="C2539" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2539">
         <v>25</v>
@@ -61660,7 +61653,7 @@
         <v>136</v>
       </c>
       <c r="C2540" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2540">
         <v>26</v>
@@ -61683,7 +61676,7 @@
         <v>137</v>
       </c>
       <c r="C2541" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2541">
         <v>27</v>
@@ -61706,7 +61699,7 @@
         <v>138</v>
       </c>
       <c r="C2542" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2542">
         <v>28</v>
@@ -61729,7 +61722,7 @@
         <v>139</v>
       </c>
       <c r="C2543" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2543">
         <v>29</v>
@@ -61752,7 +61745,7 @@
         <v>140</v>
       </c>
       <c r="C2544" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2544">
         <v>30</v>
@@ -61775,7 +61768,7 @@
         <v>141</v>
       </c>
       <c r="C2545" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2545">
         <v>31</v>
@@ -61798,7 +61791,7 @@
         <v>142</v>
       </c>
       <c r="C2546" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2546">
         <v>32</v>
@@ -61827,7 +61820,7 @@
         <v>143</v>
       </c>
       <c r="C2548" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2548">
         <v>1</v>
@@ -61850,7 +61843,7 @@
         <v>144</v>
       </c>
       <c r="C2549" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2549">
         <v>2</v>
@@ -61873,7 +61866,7 @@
         <v>145</v>
       </c>
       <c r="C2550" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2550">
         <v>3</v>
@@ -61896,7 +61889,7 @@
         <v>146</v>
       </c>
       <c r="C2551" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2551">
         <v>4</v>
@@ -61919,7 +61912,7 @@
         <v>147</v>
       </c>
       <c r="C2552" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2552">
         <v>5</v>
@@ -61942,7 +61935,7 @@
         <v>148</v>
       </c>
       <c r="C2553" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2553">
         <v>6</v>
@@ -61965,7 +61958,7 @@
         <v>149</v>
       </c>
       <c r="C2554" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2554">
         <v>7</v>
@@ -61988,7 +61981,7 @@
         <v>150</v>
       </c>
       <c r="C2555" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2555">
         <v>8</v>
@@ -62011,7 +62004,7 @@
         <v>151</v>
       </c>
       <c r="C2556" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2556">
         <v>9</v>
@@ -62034,13 +62027,13 @@
         <v>152</v>
       </c>
       <c r="C2557" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2557">
         <v>10</v>
       </c>
       <c r="G2557" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H2557">
         <v>0</v>
@@ -62057,13 +62050,13 @@
         <v>153</v>
       </c>
       <c r="C2558" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2558">
         <v>11</v>
       </c>
       <c r="G2558" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H2558">
         <v>0</v>
@@ -62080,7 +62073,7 @@
         <v>154</v>
       </c>
       <c r="C2559" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2559">
         <v>12</v>
@@ -62103,7 +62096,7 @@
         <v>155</v>
       </c>
       <c r="C2560" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2560">
         <v>13</v>
@@ -62126,7 +62119,7 @@
         <v>156</v>
       </c>
       <c r="C2561" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2561">
         <v>14</v>
@@ -62149,7 +62142,7 @@
         <v>157</v>
       </c>
       <c r="C2562" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2562">
         <v>15</v>
@@ -62172,7 +62165,7 @@
         <v>158</v>
       </c>
       <c r="C2563" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2563">
         <v>16</v>
@@ -62195,7 +62188,7 @@
         <v>159</v>
       </c>
       <c r="C2564" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2564">
         <v>17</v>
@@ -62218,7 +62211,7 @@
         <v>160</v>
       </c>
       <c r="C2565" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2565">
         <v>18</v>
@@ -62241,7 +62234,7 @@
         <v>161</v>
       </c>
       <c r="C2566" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2566">
         <v>19</v>
@@ -62264,7 +62257,7 @@
         <v>162</v>
       </c>
       <c r="C2567" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2567">
         <v>20</v>
@@ -62287,7 +62280,7 @@
         <v>163</v>
       </c>
       <c r="C2568" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2568">
         <v>21</v>
@@ -62307,7 +62300,7 @@
         <v>164</v>
       </c>
       <c r="C2569" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2569">
         <v>22</v>
@@ -62330,7 +62323,7 @@
         <v>165</v>
       </c>
       <c r="C2570" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2570">
         <v>23</v>
@@ -62353,7 +62346,7 @@
         <v>166</v>
       </c>
       <c r="C2571" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2571">
         <v>24</v>
@@ -62376,7 +62369,7 @@
         <v>167</v>
       </c>
       <c r="C2572" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2572">
         <v>25</v>
@@ -62399,7 +62392,7 @@
         <v>168</v>
       </c>
       <c r="C2573" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2573">
         <v>26</v>
@@ -62422,7 +62415,7 @@
         <v>169</v>
       </c>
       <c r="C2574" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2574">
         <v>27</v>
@@ -62445,7 +62438,7 @@
         <v>170</v>
       </c>
       <c r="C2575" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2575">
         <v>28</v>
@@ -62468,7 +62461,7 @@
         <v>171</v>
       </c>
       <c r="C2576" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2576">
         <v>29</v>
@@ -62491,7 +62484,7 @@
         <v>172</v>
       </c>
       <c r="C2577" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2577">
         <v>30</v>
@@ -62514,7 +62507,7 @@
         <v>173</v>
       </c>
       <c r="C2578" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2578">
         <v>31</v>
@@ -62537,7 +62530,7 @@
         <v>174</v>
       </c>
       <c r="C2579" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2579">
         <v>32</v>
@@ -62560,7 +62553,7 @@
         <v>175</v>
       </c>
       <c r="C2580" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2580">
         <v>33</v>
@@ -62583,7 +62576,7 @@
         <v>176</v>
       </c>
       <c r="C2581" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2581">
         <v>34</v>
@@ -62606,7 +62599,7 @@
         <v>177</v>
       </c>
       <c r="C2582" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2582">
         <v>35</v>
@@ -62629,7 +62622,7 @@
         <v>178</v>
       </c>
       <c r="C2583" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2583">
         <v>36</v>
@@ -62652,7 +62645,7 @@
         <v>179</v>
       </c>
       <c r="C2584" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2584">
         <v>37</v>
@@ -62675,7 +62668,7 @@
         <v>180</v>
       </c>
       <c r="C2585" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2585">
         <v>38</v>
@@ -62698,7 +62691,7 @@
         <v>181</v>
       </c>
       <c r="C2586" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2586">
         <v>39</v>
@@ -62721,7 +62714,7 @@
         <v>182</v>
       </c>
       <c r="C2587" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2587">
         <v>40</v>
@@ -62744,7 +62737,7 @@
         <v>183</v>
       </c>
       <c r="C2588" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2588">
         <v>41</v>
@@ -62767,7 +62760,7 @@
         <v>184</v>
       </c>
       <c r="C2589" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2589">
         <v>42</v>
@@ -62790,7 +62783,7 @@
         <v>185</v>
       </c>
       <c r="C2590" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2590">
         <v>43</v>
@@ -62813,7 +62806,7 @@
         <v>186</v>
       </c>
       <c r="C2591" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2591">
         <v>44</v>
@@ -62836,7 +62829,7 @@
         <v>187</v>
       </c>
       <c r="C2592" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2592">
         <v>45</v>
@@ -62859,7 +62852,7 @@
         <v>188</v>
       </c>
       <c r="C2593" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2593">
         <v>46</v>
@@ -62882,7 +62875,7 @@
         <v>189</v>
       </c>
       <c r="C2594" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2594">
         <v>47</v>
@@ -62905,7 +62898,7 @@
         <v>190</v>
       </c>
       <c r="C2595" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2595">
         <v>48</v>
@@ -62928,7 +62921,7 @@
         <v>191</v>
       </c>
       <c r="C2596" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2596">
         <v>49</v>
@@ -62951,7 +62944,7 @@
         <v>192</v>
       </c>
       <c r="C2597" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2597">
         <v>50</v>
@@ -62974,7 +62967,7 @@
         <v>193</v>
       </c>
       <c r="C2598" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2598">
         <v>51</v>
@@ -62997,7 +62990,7 @@
         <v>194</v>
       </c>
       <c r="C2599" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2599">
         <v>52</v>
@@ -63020,7 +63013,7 @@
         <v>195</v>
       </c>
       <c r="C2600" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2600">
         <v>53</v>
@@ -63043,7 +63036,7 @@
         <v>196</v>
       </c>
       <c r="C2601" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2601">
         <v>54</v>
@@ -63066,7 +63059,7 @@
         <v>197</v>
       </c>
       <c r="C2602" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2602">
         <v>55</v>
@@ -63089,7 +63082,7 @@
         <v>198</v>
       </c>
       <c r="C2603" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2603">
         <v>56</v>
@@ -63112,7 +63105,7 @@
         <v>199</v>
       </c>
       <c r="C2604" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2604">
         <v>57</v>
@@ -63135,7 +63128,7 @@
         <v>200</v>
       </c>
       <c r="C2605" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2605">
         <v>58</v>
@@ -63158,7 +63151,7 @@
         <v>201</v>
       </c>
       <c r="C2606" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2606">
         <v>59</v>
@@ -63181,7 +63174,7 @@
         <v>202</v>
       </c>
       <c r="C2607" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2607">
         <v>60</v>
@@ -63204,7 +63197,7 @@
         <v>203</v>
       </c>
       <c r="C2608" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2608">
         <v>61</v>
@@ -63227,7 +63220,7 @@
         <v>204</v>
       </c>
       <c r="C2609" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2609">
         <v>62</v>
@@ -63250,10 +63243,10 @@
         <v>205</v>
       </c>
       <c r="C2610" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2610" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G2610">
         <v>5</v>
@@ -63273,10 +63266,10 @@
         <v>206</v>
       </c>
       <c r="C2611" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2611" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G2611">
         <v>5</v>
@@ -63296,10 +63289,10 @@
         <v>207</v>
       </c>
       <c r="C2612" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2612" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G2612">
         <v>5</v>
@@ -63319,10 +63312,10 @@
         <v>208</v>
       </c>
       <c r="C2613" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2613" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G2613">
         <v>5</v>
@@ -63342,10 +63335,10 @@
         <v>209</v>
       </c>
       <c r="C2614" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2614" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G2614">
         <v>10</v>
@@ -63365,10 +63358,10 @@
         <v>210</v>
       </c>
       <c r="C2615" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2615" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G2615">
         <v>10</v>
@@ -63388,10 +63381,10 @@
         <v>211</v>
       </c>
       <c r="C2616" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2616" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G2616">
         <v>10</v>
@@ -63405,7 +63398,7 @@
     </row>
     <row r="2617" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2617" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="2618" spans="1:9" x14ac:dyDescent="0.45">
@@ -63416,10 +63409,10 @@
         <v>1</v>
       </c>
       <c r="C2618" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F2618" t="s">
         <v>1211</v>
-      </c>
-      <c r="F2618" t="s">
-        <v>1212</v>
       </c>
       <c r="G2618">
         <v>12</v>
@@ -63433,10 +63426,10 @@
         <v>2</v>
       </c>
       <c r="C2619" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2619" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G2619">
         <v>23</v>
@@ -63456,10 +63449,10 @@
         <v>3</v>
       </c>
       <c r="C2620" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2620" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G2620">
         <v>8</v>
@@ -63479,10 +63472,10 @@
         <v>4</v>
       </c>
       <c r="C2621" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2621" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G2621">
         <v>8</v>
@@ -63502,10 +63495,10 @@
         <v>5</v>
       </c>
       <c r="C2622" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2622" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="G2622">
         <v>8</v>
@@ -63525,10 +63518,10 @@
         <v>6</v>
       </c>
       <c r="C2623" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2623" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G2623">
         <v>8</v>
@@ -63548,10 +63541,10 @@
         <v>7</v>
       </c>
       <c r="C2624" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2624" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G2624">
         <v>8</v>
@@ -63571,10 +63564,10 @@
         <v>8</v>
       </c>
       <c r="C2625" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2625" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G2625">
         <v>16</v>
@@ -63594,10 +63587,10 @@
         <v>9</v>
       </c>
       <c r="C2626" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2626" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G2626">
         <v>4</v>
@@ -63617,10 +63610,10 @@
         <v>10</v>
       </c>
       <c r="C2627" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2627" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G2627">
         <v>15</v>
@@ -63640,10 +63633,10 @@
         <v>11</v>
       </c>
       <c r="C2628" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2628" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G2628">
         <v>1</v>
@@ -63663,10 +63656,10 @@
         <v>12</v>
       </c>
       <c r="C2629" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2629" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G2629">
         <v>1</v>
@@ -63686,10 +63679,10 @@
         <v>13</v>
       </c>
       <c r="C2630" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2630" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G2630">
         <v>1</v>
@@ -63709,10 +63702,10 @@
         <v>14</v>
       </c>
       <c r="C2631" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2631" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G2631">
         <v>1</v>
@@ -63732,10 +63725,10 @@
         <v>15</v>
       </c>
       <c r="C2632" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2632" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G2632">
         <v>13</v>
@@ -63755,10 +63748,10 @@
         <v>16</v>
       </c>
       <c r="C2633" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2633" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G2633">
         <v>25</v>
@@ -63778,10 +63771,10 @@
         <v>17</v>
       </c>
       <c r="C2634" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2634" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G2634">
         <v>25</v>
@@ -63801,10 +63794,10 @@
         <v>18</v>
       </c>
       <c r="C2635" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2635" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G2635">
         <v>25</v>
@@ -63824,10 +63817,10 @@
         <v>19</v>
       </c>
       <c r="C2636" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2636" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G2636">
         <v>10</v>
@@ -63847,10 +63840,10 @@
         <v>20</v>
       </c>
       <c r="C2637" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2637" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G2637">
         <v>10</v>
@@ -63870,10 +63863,10 @@
         <v>21</v>
       </c>
       <c r="C2638" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2638" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G2638">
         <v>10</v>
@@ -63893,10 +63886,10 @@
         <v>22</v>
       </c>
       <c r="C2639" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2639" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G2639">
         <v>10</v>
@@ -63916,10 +63909,10 @@
         <v>23</v>
       </c>
       <c r="C2640" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2640" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G2640">
         <v>10</v>
@@ -63939,10 +63932,10 @@
         <v>24</v>
       </c>
       <c r="C2641" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2641" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G2641">
         <v>10</v>
@@ -63962,10 +63955,10 @@
         <v>25</v>
       </c>
       <c r="C2642" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2642" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G2642">
         <v>10</v>
@@ -63985,10 +63978,10 @@
         <v>26</v>
       </c>
       <c r="C2643" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2643" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="G2643">
         <v>10</v>
@@ -64008,10 +64001,10 @@
         <v>27</v>
       </c>
       <c r="C2644" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2644" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G2644">
         <v>10</v>
@@ -64031,10 +64024,10 @@
         <v>28</v>
       </c>
       <c r="C2645" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2645" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G2645">
         <v>10</v>
@@ -64054,10 +64047,10 @@
         <v>29</v>
       </c>
       <c r="C2646" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2646" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G2646">
         <v>10</v>
@@ -64077,10 +64070,10 @@
         <v>30</v>
       </c>
       <c r="C2647" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2647" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G2647">
         <v>10</v>
@@ -64100,10 +64093,10 @@
         <v>31</v>
       </c>
       <c r="C2648" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2648" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="G2648">
         <v>10</v>
@@ -64123,10 +64116,10 @@
         <v>32</v>
       </c>
       <c r="C2649" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2649" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="G2649">
         <v>10</v>
@@ -64146,10 +64139,10 @@
         <v>33</v>
       </c>
       <c r="C2650" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2650" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G2650">
         <v>10</v>
@@ -64169,10 +64162,10 @@
         <v>34</v>
       </c>
       <c r="C2651" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2651" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G2651">
         <v>10</v>
@@ -64192,10 +64185,10 @@
         <v>35</v>
       </c>
       <c r="C2652" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2652" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G2652">
         <v>19</v>
@@ -64215,10 +64208,10 @@
         <v>36</v>
       </c>
       <c r="C2653" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2653" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="G2653">
         <v>19</v>
@@ -64238,10 +64231,10 @@
         <v>37</v>
       </c>
       <c r="C2654" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2654" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G2654">
         <v>19</v>
@@ -64261,10 +64254,10 @@
         <v>38</v>
       </c>
       <c r="C2655" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2655" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G2655">
         <v>5</v>
@@ -64284,10 +64277,10 @@
         <v>39</v>
       </c>
       <c r="C2656" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2656" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G2656">
         <v>5</v>
@@ -64307,10 +64300,10 @@
         <v>40</v>
       </c>
       <c r="C2657" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2657" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G2657">
         <v>5</v>
@@ -64330,10 +64323,10 @@
         <v>41</v>
       </c>
       <c r="C2658" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2658" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G2658">
         <v>5</v>
@@ -64353,10 +64346,10 @@
         <v>42</v>
       </c>
       <c r="C2659" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2659" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G2659">
         <v>5</v>
@@ -64376,10 +64369,10 @@
         <v>43</v>
       </c>
       <c r="C2660" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2660" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G2660">
         <v>5</v>
@@ -64399,10 +64392,10 @@
         <v>44</v>
       </c>
       <c r="C2661" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2661" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="G2661">
         <v>5</v>
@@ -64422,10 +64415,10 @@
         <v>1</v>
       </c>
       <c r="C2663" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F2663" t="s">
         <v>1187</v>
-      </c>
-      <c r="F2663" t="s">
-        <v>1188</v>
       </c>
       <c r="G2663">
         <v>1</v>
@@ -64445,10 +64438,10 @@
         <v>2</v>
       </c>
       <c r="C2664" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F2664" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G2664">
         <v>5</v>
@@ -64468,10 +64461,10 @@
         <v>3</v>
       </c>
       <c r="C2665" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F2665" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G2665">
         <v>5</v>
@@ -64491,10 +64484,10 @@
         <v>4</v>
       </c>
       <c r="C2666" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F2666" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G2666">
         <v>5</v>
@@ -64514,10 +64507,10 @@
         <v>5</v>
       </c>
       <c r="C2667" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F2667" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G2667">
         <v>7</v>
@@ -64537,10 +64530,10 @@
         <v>6</v>
       </c>
       <c r="C2668" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F2668" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G2668">
         <v>10</v>
@@ -64560,10 +64553,10 @@
         <v>7</v>
       </c>
       <c r="C2669" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F2669" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G2669">
         <v>10</v>
@@ -64583,10 +64576,10 @@
         <v>8</v>
       </c>
       <c r="C2670" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F2670" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G2670">
         <v>10</v>
@@ -64606,10 +64599,10 @@
         <v>9</v>
       </c>
       <c r="C2671" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F2671" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G2671">
         <v>10</v>
@@ -64629,10 +64622,10 @@
         <v>10</v>
       </c>
       <c r="C2672" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F2672" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G2672">
         <v>10</v>
@@ -64652,10 +64645,10 @@
         <v>11</v>
       </c>
       <c r="C2673" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F2673" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G2673">
         <v>11</v>
@@ -64675,10 +64668,10 @@
         <v>12</v>
       </c>
       <c r="C2674" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F2674" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G2674">
         <v>74</v>
@@ -64698,10 +64691,10 @@
         <v>13</v>
       </c>
       <c r="C2675" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F2675" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G2675">
         <v>76</v>
@@ -64721,7 +64714,7 @@
         <v>1</v>
       </c>
       <c r="C2677" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2677">
         <v>1</v>
@@ -64741,7 +64734,7 @@
         <v>2</v>
       </c>
       <c r="C2678" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2678">
         <v>2</v>
@@ -64761,7 +64754,7 @@
         <v>3</v>
       </c>
       <c r="C2679" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2679">
         <v>3</v>
@@ -64781,7 +64774,7 @@
         <v>4</v>
       </c>
       <c r="C2680" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2680">
         <v>4</v>
@@ -64801,7 +64794,7 @@
         <v>5</v>
       </c>
       <c r="C2681" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2681">
         <v>5</v>
@@ -64821,7 +64814,7 @@
         <v>6</v>
       </c>
       <c r="C2682" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2682">
         <v>6</v>
@@ -64841,7 +64834,7 @@
         <v>7</v>
       </c>
       <c r="C2683" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2683">
         <v>7</v>
@@ -64861,7 +64854,7 @@
         <v>8</v>
       </c>
       <c r="C2684" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2684">
         <v>8</v>
@@ -64881,7 +64874,7 @@
         <v>9</v>
       </c>
       <c r="C2685" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2685">
         <v>9</v>
@@ -64901,7 +64894,7 @@
         <v>10</v>
       </c>
       <c r="C2686" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2686">
         <v>10</v>
@@ -64921,7 +64914,7 @@
         <v>11</v>
       </c>
       <c r="C2687" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2687">
         <v>11</v>
@@ -64941,7 +64934,7 @@
         <v>12</v>
       </c>
       <c r="C2688" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2688">
         <v>12</v>
@@ -64961,7 +64954,7 @@
         <v>13</v>
       </c>
       <c r="C2689" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2689">
         <v>13</v>
@@ -64981,7 +64974,7 @@
         <v>14</v>
       </c>
       <c r="C2690" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2690">
         <v>14</v>
@@ -65001,7 +64994,7 @@
         <v>15</v>
       </c>
       <c r="C2691" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2691">
         <v>15</v>
@@ -65021,7 +65014,7 @@
         <v>16</v>
       </c>
       <c r="C2692" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2692">
         <v>16</v>
@@ -65041,7 +65034,7 @@
         <v>17</v>
       </c>
       <c r="C2693" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2693">
         <v>17</v>
@@ -65061,7 +65054,7 @@
         <v>18</v>
       </c>
       <c r="C2694" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2694">
         <v>18</v>
@@ -65081,7 +65074,7 @@
         <v>19</v>
       </c>
       <c r="C2695" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2695">
         <v>19</v>
@@ -65101,7 +65094,7 @@
         <v>20</v>
       </c>
       <c r="C2696" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2696">
         <v>20</v>
@@ -65118,7 +65111,7 @@
         <v>21</v>
       </c>
       <c r="C2697" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2697">
         <v>21</v>
@@ -65135,13 +65128,13 @@
         <v>22</v>
       </c>
       <c r="C2698" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2698">
         <v>22</v>
       </c>
       <c r="G2698" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2699" spans="1:9" x14ac:dyDescent="0.45">
@@ -65152,13 +65145,13 @@
         <v>23</v>
       </c>
       <c r="C2699" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F2699">
         <v>23</v>
       </c>
       <c r="G2699" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2701" spans="1:9" x14ac:dyDescent="0.45">
@@ -65169,10 +65162,10 @@
         <v>1</v>
       </c>
       <c r="C2701" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F2701" t="s">
         <v>1257</v>
-      </c>
-      <c r="F2701" t="s">
-        <v>1258</v>
       </c>
       <c r="G2701">
         <v>111</v>
@@ -65192,10 +65185,10 @@
         <v>2</v>
       </c>
       <c r="C2702" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2702" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G2702">
         <v>111</v>
@@ -65215,10 +65208,10 @@
         <v>3</v>
       </c>
       <c r="C2703" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2703" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G2703">
         <v>111</v>
@@ -65238,10 +65231,10 @@
         <v>4</v>
       </c>
       <c r="C2704" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2704" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G2704">
         <v>116</v>
@@ -65255,10 +65248,10 @@
         <v>5</v>
       </c>
       <c r="C2705" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2705" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G2705">
         <v>111</v>
@@ -65278,10 +65271,10 @@
         <v>6</v>
       </c>
       <c r="C2706" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2706" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G2706">
         <v>95</v>
@@ -65304,10 +65297,10 @@
         <v>7</v>
       </c>
       <c r="C2707" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2707" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G2707">
         <v>111</v>
@@ -65322,7 +65315,7 @@
         <v>0</v>
       </c>
       <c r="K2707" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="2708" spans="1:11" x14ac:dyDescent="0.45">
@@ -65333,10 +65326,10 @@
         <v>8</v>
       </c>
       <c r="C2708" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2708" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G2708">
         <v>111</v>
@@ -65351,7 +65344,7 @@
         <v>1</v>
       </c>
       <c r="K2708" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="2709" spans="1:11" x14ac:dyDescent="0.45">
@@ -65362,10 +65355,10 @@
         <v>9</v>
       </c>
       <c r="C2709" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2709" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G2709">
         <v>111</v>
@@ -65385,10 +65378,10 @@
         <v>10</v>
       </c>
       <c r="C2710" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2710" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="G2710">
         <v>111</v>
@@ -65408,10 +65401,10 @@
         <v>11</v>
       </c>
       <c r="C2711" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2711" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="G2711">
         <v>111</v>
@@ -65431,10 +65424,10 @@
         <v>12</v>
       </c>
       <c r="C2712" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2712" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G2712">
         <v>111</v>
@@ -65454,10 +65447,10 @@
         <v>13</v>
       </c>
       <c r="C2713" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2713" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G2713">
         <v>82</v>
@@ -65477,10 +65470,10 @@
         <v>14</v>
       </c>
       <c r="C2714" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2714" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G2714">
         <v>82</v>
@@ -65500,10 +65493,10 @@
         <v>15</v>
       </c>
       <c r="C2715" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2715" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="G2715">
         <v>82</v>
@@ -65523,10 +65516,10 @@
         <v>16</v>
       </c>
       <c r="C2716" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2716" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G2716">
         <v>82</v>
@@ -65546,10 +65539,10 @@
         <v>17</v>
       </c>
       <c r="C2717" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2717" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G2717">
         <v>82</v>
@@ -65572,10 +65565,10 @@
         <v>18</v>
       </c>
       <c r="C2718" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2718" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G2718">
         <v>82</v>
@@ -65598,10 +65591,10 @@
         <v>19</v>
       </c>
       <c r="C2719" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2719" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="G2719">
         <v>95</v>
@@ -65621,10 +65614,10 @@
         <v>20</v>
       </c>
       <c r="C2720" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2720" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="G2720">
         <v>95</v>
@@ -65644,10 +65637,10 @@
         <v>21</v>
       </c>
       <c r="C2721" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2721" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G2721">
         <v>95</v>
@@ -65670,10 +65663,10 @@
         <v>22</v>
       </c>
       <c r="C2722" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2722" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G2722">
         <v>95</v>
@@ -65696,10 +65689,10 @@
         <v>23</v>
       </c>
       <c r="C2723" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2723" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G2723">
         <v>90</v>
@@ -65713,10 +65706,10 @@
         <v>24</v>
       </c>
       <c r="C2724" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2724" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G2724">
         <v>119</v>
@@ -65736,10 +65729,10 @@
         <v>25</v>
       </c>
       <c r="C2725" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2725" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G2725">
         <v>79</v>
@@ -65759,10 +65752,10 @@
         <v>26</v>
       </c>
       <c r="C2726" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2726" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G2726">
         <v>90</v>
@@ -65776,10 +65769,10 @@
         <v>27</v>
       </c>
       <c r="C2727" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2727" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G2727">
         <v>119</v>
@@ -65799,10 +65792,10 @@
         <v>28</v>
       </c>
       <c r="C2728" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2728" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G2728">
         <v>79</v>
@@ -65822,10 +65815,10 @@
         <v>29</v>
       </c>
       <c r="C2729" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2729" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G2729">
         <v>92</v>
@@ -65839,10 +65832,10 @@
         <v>30</v>
       </c>
       <c r="C2730" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2730" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G2730">
         <v>120</v>
@@ -65862,10 +65855,10 @@
         <v>31</v>
       </c>
       <c r="C2731" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2731" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G2731">
         <v>80</v>
@@ -65885,10 +65878,10 @@
         <v>32</v>
       </c>
       <c r="C2732" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2732" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G2732">
         <v>94</v>
@@ -65902,10 +65895,10 @@
         <v>33</v>
       </c>
       <c r="C2733" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2733" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G2733">
         <v>121</v>
@@ -65919,10 +65912,10 @@
         <v>34</v>
       </c>
       <c r="C2734" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2734" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G2734">
         <v>81</v>
@@ -65942,10 +65935,10 @@
         <v>35</v>
       </c>
       <c r="C2735" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2735" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G2735">
         <v>78</v>
@@ -65959,10 +65952,10 @@
         <v>36</v>
       </c>
       <c r="C2736" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2736" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G2736">
         <v>88</v>
@@ -65976,10 +65969,10 @@
         <v>37</v>
       </c>
       <c r="C2737" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2737" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G2737">
         <v>88</v>
@@ -65993,10 +65986,10 @@
         <v>38</v>
       </c>
       <c r="C2738" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2738" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G2738">
         <v>89</v>
@@ -66019,10 +66012,10 @@
         <v>39</v>
       </c>
       <c r="C2739" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2739" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G2739">
         <v>79</v>
@@ -66045,10 +66038,10 @@
         <v>40</v>
       </c>
       <c r="C2740" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2740" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G2740">
         <v>79</v>
@@ -66071,10 +66064,10 @@
         <v>41</v>
       </c>
       <c r="C2741" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2741" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G2741">
         <v>89</v>
@@ -66097,10 +66090,10 @@
         <v>42</v>
       </c>
       <c r="C2742" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2742" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G2742">
         <v>79</v>
@@ -66120,10 +66113,10 @@
         <v>43</v>
       </c>
       <c r="C2743" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2743" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G2743">
         <v>90</v>
@@ -66137,10 +66130,10 @@
         <v>44</v>
       </c>
       <c r="C2744" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2744" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="G2744">
         <v>79</v>
@@ -66160,10 +66153,10 @@
         <v>45</v>
       </c>
       <c r="C2745" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2745" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="G2745">
         <v>79</v>
@@ -66183,10 +66176,10 @@
         <v>46</v>
       </c>
       <c r="C2746" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2746" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="G2746">
         <v>119</v>
@@ -66206,10 +66199,10 @@
         <v>47</v>
       </c>
       <c r="C2747" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2747" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G2747">
         <v>119</v>
@@ -66229,10 +66222,10 @@
         <v>48</v>
       </c>
       <c r="C2748" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2748" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="G2748">
         <v>79</v>
@@ -66252,10 +66245,10 @@
         <v>49</v>
       </c>
       <c r="C2749" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2749" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G2749">
         <v>91</v>
@@ -66278,10 +66271,10 @@
         <v>50</v>
       </c>
       <c r="C2750" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2750" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G2750">
         <v>80</v>
@@ -66304,10 +66297,10 @@
         <v>51</v>
       </c>
       <c r="C2751" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2751" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G2751">
         <v>80</v>
@@ -66330,10 +66323,10 @@
         <v>52</v>
       </c>
       <c r="C2752" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2752" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="G2752">
         <v>80</v>
@@ -66353,10 +66346,10 @@
         <v>53</v>
       </c>
       <c r="C2753" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2753" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="G2753">
         <v>80</v>
@@ -66376,10 +66369,10 @@
         <v>54</v>
       </c>
       <c r="C2754" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2754" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G2754">
         <v>91</v>
@@ -66402,10 +66395,10 @@
         <v>55</v>
       </c>
       <c r="C2755" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2755" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="G2755">
         <v>80</v>
@@ -66425,10 +66418,10 @@
         <v>56</v>
       </c>
       <c r="C2756" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2756" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G2756">
         <v>91</v>
@@ -66451,10 +66444,10 @@
         <v>57</v>
       </c>
       <c r="C2757" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2757" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G2757">
         <v>80</v>
@@ -66474,10 +66467,10 @@
         <v>58</v>
       </c>
       <c r="C2758" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2758" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G2758">
         <v>91</v>
@@ -66500,10 +66493,10 @@
         <v>59</v>
       </c>
       <c r="C2759" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2759" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G2759">
         <v>80</v>
@@ -66523,10 +66516,10 @@
         <v>60</v>
       </c>
       <c r="C2760" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2760" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G2760">
         <v>92</v>
@@ -66540,10 +66533,10 @@
         <v>61</v>
       </c>
       <c r="C2761" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2761" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G2761">
         <v>120</v>
@@ -66563,10 +66556,10 @@
         <v>62</v>
       </c>
       <c r="C2762" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2762" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G2762">
         <v>80</v>
@@ -66586,10 +66579,10 @@
         <v>63</v>
       </c>
       <c r="C2763" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2763" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G2763">
         <v>93</v>
@@ -66612,10 +66605,10 @@
         <v>64</v>
       </c>
       <c r="C2764" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2764" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G2764">
         <v>81</v>
@@ -66638,10 +66631,10 @@
         <v>65</v>
       </c>
       <c r="C2765" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2765" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G2765">
         <v>81</v>
@@ -66664,10 +66657,10 @@
         <v>66</v>
       </c>
       <c r="C2766" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2766" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G2766">
         <v>93</v>
@@ -66690,10 +66683,10 @@
         <v>67</v>
       </c>
       <c r="C2767" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2767" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G2767">
         <v>81</v>
@@ -66713,10 +66706,10 @@
         <v>68</v>
       </c>
       <c r="C2768" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2768" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G2768">
         <v>94</v>
@@ -66730,10 +66723,10 @@
         <v>69</v>
       </c>
       <c r="C2769" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2769" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G2769">
         <v>81</v>
@@ -66753,10 +66746,10 @@
         <v>70</v>
       </c>
       <c r="C2770" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2770" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G2770">
         <v>81</v>
@@ -66776,10 +66769,10 @@
         <v>71</v>
       </c>
       <c r="C2771" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2771" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G2771">
         <v>121</v>
@@ -66793,10 +66786,10 @@
         <v>72</v>
       </c>
       <c r="C2772" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2772" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G2772">
         <v>81</v>
@@ -66816,10 +66809,10 @@
         <v>73</v>
       </c>
       <c r="C2773" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2773" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G2773">
         <v>77</v>
@@ -66839,10 +66832,10 @@
         <v>74</v>
       </c>
       <c r="C2774" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2774" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G2774">
         <v>88</v>
@@ -66856,10 +66849,10 @@
         <v>75</v>
       </c>
       <c r="C2775" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2775" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G2775">
         <v>88</v>
@@ -66873,10 +66866,10 @@
         <v>76</v>
       </c>
       <c r="C2776" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2776" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G2776">
         <v>78</v>
@@ -66890,10 +66883,10 @@
         <v>77</v>
       </c>
       <c r="C2777" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2777" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="G2777">
         <v>88</v>
@@ -66907,10 +66900,10 @@
         <v>78</v>
       </c>
       <c r="C2778" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2778" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G2778">
         <v>88</v>
@@ -66924,10 +66917,10 @@
         <v>79</v>
       </c>
       <c r="C2779" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2779" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G2779">
         <v>89</v>
@@ -66950,10 +66943,10 @@
         <v>80</v>
       </c>
       <c r="C2780" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2780" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G2780">
         <v>108</v>
@@ -66973,10 +66966,10 @@
         <v>81</v>
       </c>
       <c r="C2781" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2781" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G2781">
         <v>79</v>
@@ -66996,10 +66989,10 @@
         <v>82</v>
       </c>
       <c r="C2782" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2782" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G2782">
         <v>91</v>
@@ -67022,10 +67015,10 @@
         <v>83</v>
       </c>
       <c r="C2783" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2783" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G2783">
         <v>91</v>
@@ -67048,10 +67041,10 @@
         <v>84</v>
       </c>
       <c r="C2784" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2784" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G2784">
         <v>91</v>
@@ -67074,10 +67067,10 @@
         <v>85</v>
       </c>
       <c r="C2785" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2785" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G2785">
         <v>109</v>
@@ -67097,10 +67090,10 @@
         <v>86</v>
       </c>
       <c r="C2786" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2786" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G2786">
         <v>80</v>
@@ -67120,10 +67113,10 @@
         <v>87</v>
       </c>
       <c r="C2787" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2787" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G2787">
         <v>93</v>
@@ -67146,10 +67139,10 @@
         <v>88</v>
       </c>
       <c r="C2788" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2788" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G2788">
         <v>110</v>
@@ -67169,10 +67162,10 @@
         <v>89</v>
       </c>
       <c r="C2789" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2789" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G2789">
         <v>81</v>
@@ -67192,10 +67185,10 @@
         <v>90</v>
       </c>
       <c r="C2790" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2790" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G2790">
         <v>77</v>
@@ -67215,10 +67208,10 @@
         <v>91</v>
       </c>
       <c r="C2791" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2791" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G2791">
         <v>106</v>
@@ -67238,10 +67231,10 @@
         <v>92</v>
       </c>
       <c r="C2792" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2792" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G2792">
         <v>88</v>
@@ -67255,10 +67248,10 @@
         <v>93</v>
       </c>
       <c r="C2793" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2793" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G2793">
         <v>108</v>
@@ -67281,10 +67274,10 @@
         <v>94</v>
       </c>
       <c r="C2794" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2794" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G2794">
         <v>108</v>
@@ -67307,10 +67300,10 @@
         <v>95</v>
       </c>
       <c r="C2795" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2795" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G2795">
         <v>89</v>
@@ -67333,10 +67326,10 @@
         <v>96</v>
       </c>
       <c r="C2796" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2796" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G2796">
         <v>108</v>
@@ -67356,10 +67349,10 @@
         <v>97</v>
       </c>
       <c r="C2797" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2797" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G2797">
         <v>108</v>
@@ -67379,10 +67372,10 @@
         <v>98</v>
       </c>
       <c r="C2798" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2798" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="G2798">
         <v>108</v>
@@ -67402,10 +67395,10 @@
         <v>99</v>
       </c>
       <c r="C2799" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2799" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G2799">
         <v>89</v>
@@ -67425,10 +67418,10 @@
         <v>100</v>
       </c>
       <c r="C2800" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2800" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G2800">
         <v>108</v>
@@ -67448,10 +67441,10 @@
         <v>101</v>
       </c>
       <c r="C2801" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2801" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G2801">
         <v>108</v>
@@ -67471,10 +67464,10 @@
         <v>102</v>
       </c>
       <c r="C2802" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2802" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G2802">
         <v>89</v>
@@ -67500,10 +67493,10 @@
         <v>103</v>
       </c>
       <c r="C2803" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2803" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G2803">
         <v>108</v>
@@ -67523,10 +67516,10 @@
         <v>104</v>
       </c>
       <c r="C2804" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2804" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G2804">
         <v>113</v>
@@ -67540,10 +67533,10 @@
         <v>105</v>
       </c>
       <c r="C2805" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2805" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G2805">
         <v>89</v>
@@ -67569,10 +67562,10 @@
         <v>106</v>
       </c>
       <c r="C2806" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2806" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G2806">
         <v>108</v>
@@ -67592,10 +67585,10 @@
         <v>107</v>
       </c>
       <c r="C2807" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2807" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G2807">
         <v>91</v>
@@ -67621,10 +67614,10 @@
         <v>108</v>
       </c>
       <c r="C2808" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2808" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G2808">
         <v>91</v>
@@ -67647,10 +67640,10 @@
         <v>109</v>
       </c>
       <c r="C2809" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2809" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G2809">
         <v>91</v>
@@ -67673,10 +67666,10 @@
         <v>110</v>
       </c>
       <c r="C2810" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2810" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G2810">
         <v>91</v>
@@ -67696,10 +67689,10 @@
         <v>111</v>
       </c>
       <c r="C2811" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2811" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G2811">
         <v>91</v>
@@ -67722,10 +67715,10 @@
         <v>112</v>
       </c>
       <c r="C2812" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2812" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G2812">
         <v>91</v>
@@ -67745,10 +67738,10 @@
         <v>113</v>
       </c>
       <c r="C2813" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2813" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G2813">
         <v>91</v>
@@ -67771,10 +67764,10 @@
         <v>114</v>
       </c>
       <c r="C2814" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2814" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G2814">
         <v>91</v>
@@ -67797,10 +67790,10 @@
         <v>115</v>
       </c>
       <c r="C2815" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2815" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G2815">
         <v>91</v>
@@ -67823,10 +67816,10 @@
         <v>116</v>
       </c>
       <c r="C2816" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2816" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G2816">
         <v>91</v>
@@ -67849,10 +67842,10 @@
         <v>117</v>
       </c>
       <c r="C2817" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2817" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G2817">
         <v>91</v>
@@ -67875,10 +67868,10 @@
         <v>118</v>
       </c>
       <c r="C2818" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2818" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G2818">
         <v>91</v>
@@ -67904,10 +67897,10 @@
         <v>119</v>
       </c>
       <c r="C2819" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2819" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="G2819">
         <v>109</v>
@@ -67930,10 +67923,10 @@
         <v>120</v>
       </c>
       <c r="C2820" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2820" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G2820">
         <v>109</v>
@@ -67956,10 +67949,10 @@
         <v>121</v>
       </c>
       <c r="C2821" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2821" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G2821">
         <v>109</v>
@@ -67979,10 +67972,10 @@
         <v>122</v>
       </c>
       <c r="C2822" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2822" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G2822">
         <v>109</v>
@@ -68002,10 +67995,10 @@
         <v>123</v>
       </c>
       <c r="C2823" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2823" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G2823">
         <v>109</v>
@@ -68025,10 +68018,10 @@
         <v>124</v>
       </c>
       <c r="C2824" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2824" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G2824">
         <v>109</v>
@@ -68048,10 +68041,10 @@
         <v>125</v>
       </c>
       <c r="C2825" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2825" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="G2825">
         <v>109</v>
@@ -68071,10 +68064,10 @@
         <v>126</v>
       </c>
       <c r="C2826" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2826" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G2826">
         <v>109</v>
@@ -68094,10 +68087,10 @@
         <v>127</v>
       </c>
       <c r="C2827" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2827" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G2827">
         <v>109</v>
@@ -68109,7 +68102,7 @@
         <v>2111</v>
       </c>
       <c r="K2827" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="2828" spans="1:12" x14ac:dyDescent="0.45">
@@ -68120,10 +68113,10 @@
         <v>128</v>
       </c>
       <c r="C2828" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2828" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G2828">
         <v>109</v>
@@ -68143,10 +68136,10 @@
         <v>129</v>
       </c>
       <c r="C2829" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2829" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G2829">
         <v>109</v>
@@ -68166,10 +68159,10 @@
         <v>130</v>
       </c>
       <c r="C2830" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2830" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G2830">
         <v>109</v>
@@ -68189,10 +68182,10 @@
         <v>131</v>
       </c>
       <c r="C2831" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2831" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G2831">
         <v>114</v>
@@ -68206,10 +68199,10 @@
         <v>132</v>
       </c>
       <c r="C2832" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2832" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G2832">
         <v>109</v>
@@ -68221,7 +68214,7 @@
         <v>4121</v>
       </c>
       <c r="K2832" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="2833" spans="1:12" x14ac:dyDescent="0.45">
@@ -68232,10 +68225,10 @@
         <v>133</v>
       </c>
       <c r="C2833" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2833" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G2833">
         <v>110</v>
@@ -68258,10 +68251,10 @@
         <v>134</v>
       </c>
       <c r="C2834" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2834" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G2834">
         <v>110</v>
@@ -68284,10 +68277,10 @@
         <v>135</v>
       </c>
       <c r="C2835" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2835" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G2835">
         <v>110</v>
@@ -68307,10 +68300,10 @@
         <v>136</v>
       </c>
       <c r="C2836" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2836" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G2836">
         <v>110</v>
@@ -68330,10 +68323,10 @@
         <v>137</v>
       </c>
       <c r="C2837" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2837" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G2837">
         <v>93</v>
@@ -68359,10 +68352,10 @@
         <v>138</v>
       </c>
       <c r="C2838" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2838" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="G2838">
         <v>110</v>
@@ -68382,10 +68375,10 @@
         <v>139</v>
       </c>
       <c r="C2839" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2839" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G2839">
         <v>110</v>
@@ -68405,10 +68398,10 @@
         <v>140</v>
       </c>
       <c r="C2840" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2840" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G2840">
         <v>93</v>
@@ -68428,10 +68421,10 @@
         <v>141</v>
       </c>
       <c r="C2841" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2841" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G2841">
         <v>110</v>
@@ -68451,10 +68444,10 @@
         <v>142</v>
       </c>
       <c r="C2842" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2842" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G2842">
         <v>110</v>
@@ -68474,10 +68467,10 @@
         <v>143</v>
       </c>
       <c r="C2843" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2843" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G2843">
         <v>93</v>
@@ -68500,10 +68493,10 @@
         <v>144</v>
       </c>
       <c r="C2844" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2844" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G2844">
         <v>115</v>
@@ -68517,10 +68510,10 @@
         <v>145</v>
       </c>
       <c r="C2845" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2845" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G2845">
         <v>110</v>
@@ -68540,10 +68533,10 @@
         <v>146</v>
       </c>
       <c r="C2846" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2846" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G2846">
         <v>93</v>
@@ -68569,10 +68562,10 @@
         <v>147</v>
       </c>
       <c r="C2847" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2847" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G2847">
         <v>77</v>
@@ -68595,10 +68588,10 @@
         <v>148</v>
       </c>
       <c r="C2848" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2848" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G2848">
         <v>77</v>
@@ -68618,10 +68611,10 @@
         <v>149</v>
       </c>
       <c r="C2849" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2849" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G2849">
         <v>77</v>
@@ -68644,10 +68637,10 @@
         <v>150</v>
       </c>
       <c r="C2850" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2850" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="G2850">
         <v>77</v>
@@ -68667,10 +68660,10 @@
         <v>151</v>
       </c>
       <c r="C2851" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2851" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G2851">
         <v>77</v>
@@ -68693,10 +68686,10 @@
         <v>152</v>
       </c>
       <c r="C2852" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2852" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G2852">
         <v>77</v>
@@ -68719,10 +68712,10 @@
         <v>153</v>
       </c>
       <c r="C2853" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2853" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G2853">
         <v>77</v>
@@ -68742,10 +68735,10 @@
         <v>154</v>
       </c>
       <c r="C2854" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2854" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G2854">
         <v>77</v>
@@ -68768,10 +68761,10 @@
         <v>155</v>
       </c>
       <c r="C2855" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2855" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G2855">
         <v>78</v>
@@ -68785,10 +68778,10 @@
         <v>156</v>
       </c>
       <c r="C2856" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2856" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G2856">
         <v>77</v>
@@ -68814,10 +68807,10 @@
         <v>157</v>
       </c>
       <c r="C2857" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2857" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G2857">
         <v>77</v>
@@ -68837,10 +68830,10 @@
         <v>158</v>
       </c>
       <c r="C2858" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2858" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G2858">
         <v>106</v>
@@ -68860,10 +68853,10 @@
         <v>159</v>
       </c>
       <c r="C2859" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2859" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G2859">
         <v>106</v>
@@ -68883,10 +68876,10 @@
         <v>160</v>
       </c>
       <c r="C2860" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2860" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G2860">
         <v>106</v>
@@ -68906,10 +68899,10 @@
         <v>161</v>
       </c>
       <c r="C2861" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2861" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G2861">
         <v>107</v>
@@ -68923,10 +68916,10 @@
         <v>162</v>
       </c>
       <c r="C2862" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2862" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G2862">
         <v>106</v>
@@ -68946,10 +68939,10 @@
         <v>163</v>
       </c>
       <c r="C2863" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2863" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G2863">
         <v>106</v>
@@ -68969,10 +68962,10 @@
         <v>164</v>
       </c>
       <c r="C2864" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2864" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G2864">
         <v>106</v>
@@ -68992,10 +68985,10 @@
         <v>165</v>
       </c>
       <c r="C2865" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F2865" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G2865">
         <v>88</v>
@@ -69009,7 +69002,7 @@
         <v>1</v>
       </c>
       <c r="C2867" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2867" t="s">
         <v>121</v>
@@ -69038,7 +69031,7 @@
         <v>2</v>
       </c>
       <c r="C2868" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2868" t="s">
         <v>228</v>
@@ -69064,7 +69057,7 @@
         <v>3</v>
       </c>
       <c r="C2869" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2869" t="s">
         <v>124</v>
@@ -69090,7 +69083,7 @@
         <v>4</v>
       </c>
       <c r="C2870" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2870" t="s">
         <v>125</v>
@@ -69116,7 +69109,7 @@
         <v>5</v>
       </c>
       <c r="C2871" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2871" t="s">
         <v>229</v>
@@ -69139,7 +69132,7 @@
         <v>6</v>
       </c>
       <c r="C2872" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2872" t="s">
         <v>127</v>
@@ -69162,7 +69155,7 @@
         <v>7</v>
       </c>
       <c r="C2873" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2873" t="s">
         <v>130</v>
@@ -69188,7 +69181,7 @@
         <v>8</v>
       </c>
       <c r="C2874" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2874" t="s">
         <v>131</v>
@@ -69214,7 +69207,7 @@
         <v>9</v>
       </c>
       <c r="C2875" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2875" t="s">
         <v>132</v>
@@ -69240,7 +69233,7 @@
         <v>10</v>
       </c>
       <c r="C2876" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2876" t="s">
         <v>133</v>
@@ -69263,7 +69256,7 @@
         <v>11</v>
       </c>
       <c r="C2877" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2877" t="s">
         <v>230</v>
@@ -69289,7 +69282,7 @@
         <v>12</v>
       </c>
       <c r="C2878" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2878" t="s">
         <v>232</v>
@@ -69307,7 +69300,7 @@
         <v>1</v>
       </c>
       <c r="K2878" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="2879" spans="1:12" x14ac:dyDescent="0.45">
@@ -69318,7 +69311,7 @@
         <v>13</v>
       </c>
       <c r="C2879" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2879" t="s">
         <v>143</v>
@@ -69341,7 +69334,7 @@
         <v>14</v>
       </c>
       <c r="C2880" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2880" t="s">
         <v>145</v>
@@ -69364,7 +69357,7 @@
         <v>15</v>
       </c>
       <c r="C2881" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2881" t="s">
         <v>146</v>
@@ -69390,7 +69383,7 @@
         <v>16</v>
       </c>
       <c r="C2882" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2882" t="s">
         <v>147</v>
@@ -69416,7 +69409,7 @@
         <v>17</v>
       </c>
       <c r="C2883" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2883" t="s">
         <v>310</v>
@@ -69439,7 +69432,7 @@
         <v>18</v>
       </c>
       <c r="C2884" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2884" t="s">
         <v>807</v>
@@ -69462,7 +69455,7 @@
         <v>19</v>
       </c>
       <c r="C2885" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2885" t="s">
         <v>565</v>
@@ -69485,7 +69478,7 @@
         <v>20</v>
       </c>
       <c r="C2886" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2886" t="s">
         <v>162</v>
@@ -69508,7 +69501,7 @@
         <v>21</v>
       </c>
       <c r="C2887" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2887" t="s">
         <v>164</v>
@@ -69526,7 +69519,7 @@
         <v>0</v>
       </c>
       <c r="K2887" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="2888" spans="1:12" x14ac:dyDescent="0.45">
@@ -69537,7 +69530,7 @@
         <v>22</v>
       </c>
       <c r="C2888" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2888" t="s">
         <v>165</v>
@@ -69563,7 +69556,7 @@
         <v>23</v>
       </c>
       <c r="C2889" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2889" t="s">
         <v>166</v>
@@ -69589,7 +69582,7 @@
         <v>24</v>
       </c>
       <c r="C2890" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2890" t="s">
         <v>265</v>
@@ -69612,7 +69605,7 @@
         <v>25</v>
       </c>
       <c r="C2891" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2891" t="s">
         <v>266</v>
@@ -69635,7 +69628,7 @@
         <v>26</v>
       </c>
       <c r="C2892" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2892" t="s">
         <v>267</v>
@@ -69661,7 +69654,7 @@
         <v>27</v>
       </c>
       <c r="C2893" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2893" t="s">
         <v>268</v>
@@ -69684,7 +69677,7 @@
         <v>28</v>
       </c>
       <c r="C2894" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2894" t="s">
         <v>269</v>
@@ -69707,7 +69700,7 @@
         <v>29</v>
       </c>
       <c r="C2895" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2895" t="s">
         <v>173</v>
@@ -69733,7 +69726,7 @@
         <v>30</v>
       </c>
       <c r="C2896" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2896" t="s">
         <v>175</v>
@@ -69759,7 +69752,7 @@
         <v>31</v>
       </c>
       <c r="C2897" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2897" t="s">
         <v>176</v>
@@ -69782,7 +69775,7 @@
         <v>32</v>
       </c>
       <c r="C2898" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2898" t="s">
         <v>344</v>
@@ -69805,7 +69798,7 @@
         <v>33</v>
       </c>
       <c r="C2899" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2899" t="s">
         <v>354</v>
@@ -69828,7 +69821,7 @@
         <v>34</v>
       </c>
       <c r="C2900" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2900" t="s">
         <v>279</v>
@@ -69851,7 +69844,7 @@
         <v>35</v>
       </c>
       <c r="C2901" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2901" t="s">
         <v>362</v>
@@ -69874,7 +69867,7 @@
         <v>36</v>
       </c>
       <c r="C2902" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2902" t="s">
         <v>363</v>
@@ -69897,7 +69890,7 @@
         <v>37</v>
       </c>
       <c r="C2903" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2903" t="s">
         <v>368</v>
@@ -69920,10 +69913,10 @@
         <v>38</v>
       </c>
       <c r="C2904" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2904" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G2904">
         <v>133</v>
@@ -69946,7 +69939,7 @@
         <v>39</v>
       </c>
       <c r="C2905" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2905" t="s">
         <v>369</v>
@@ -69969,7 +69962,7 @@
         <v>40</v>
       </c>
       <c r="C2906" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2906" t="s">
         <v>372</v>
@@ -69992,7 +69985,7 @@
         <v>41</v>
       </c>
       <c r="C2907" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2907" t="s">
         <v>680</v>
@@ -70015,7 +70008,7 @@
         <v>42</v>
       </c>
       <c r="C2908" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2908" t="s">
         <v>1059</v>
@@ -70038,7 +70031,7 @@
         <v>43</v>
       </c>
       <c r="C2909" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2909" t="s">
         <v>288</v>
@@ -70061,7 +70054,7 @@
         <v>44</v>
       </c>
       <c r="C2910" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2910" t="s">
         <v>289</v>
@@ -70087,7 +70080,7 @@
         <v>45</v>
       </c>
       <c r="C2911" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2911" t="s">
         <v>387</v>
@@ -70113,7 +70106,7 @@
         <v>46</v>
       </c>
       <c r="C2912" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2912" t="s">
         <v>393</v>
@@ -70130,7 +70123,7 @@
         <v>47</v>
       </c>
       <c r="C2913" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2913" t="s">
         <v>709</v>
@@ -70147,10 +70140,10 @@
         <v>48</v>
       </c>
       <c r="C2914" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F2914" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="2916" spans="1:7" x14ac:dyDescent="0.45">
@@ -70161,10 +70154,10 @@
         <v>1</v>
       </c>
       <c r="C2916" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2916" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G2916">
         <v>69</v>
@@ -70178,10 +70171,10 @@
         <v>2</v>
       </c>
       <c r="C2917" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2917" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G2917">
         <v>71</v>
@@ -70195,10 +70188,10 @@
         <v>3</v>
       </c>
       <c r="C2918" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2918" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G2918">
         <v>68</v>
@@ -70212,10 +70205,10 @@
         <v>4</v>
       </c>
       <c r="C2919" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2919" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G2919">
         <v>67</v>
@@ -70229,10 +70222,10 @@
         <v>5</v>
       </c>
       <c r="C2920" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2920" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G2920">
         <v>70</v>
@@ -70246,10 +70239,10 @@
         <v>6</v>
       </c>
       <c r="C2921" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2921" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G2921">
         <v>72</v>
@@ -70263,7 +70256,7 @@
         <v>7</v>
       </c>
       <c r="C2922" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2922" t="s">
         <v>857</v>
@@ -70280,7 +70273,7 @@
         <v>8</v>
       </c>
       <c r="C2923" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2923" t="s">
         <v>858</v>
@@ -70297,7 +70290,7 @@
         <v>9</v>
       </c>
       <c r="C2924" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2924" t="s">
         <v>859</v>
@@ -70314,7 +70307,7 @@
         <v>10</v>
       </c>
       <c r="C2925" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2925" t="s">
         <v>860</v>
@@ -70331,7 +70324,7 @@
         <v>11</v>
       </c>
       <c r="C2926" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2926" t="s">
         <v>861</v>
@@ -70348,13 +70341,13 @@
         <v>12</v>
       </c>
       <c r="C2927" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2927" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G2927" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2928" spans="1:7" x14ac:dyDescent="0.45">
@@ -70365,13 +70358,13 @@
         <v>13</v>
       </c>
       <c r="C2928" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2928" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G2928" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2929" spans="1:10" x14ac:dyDescent="0.45">
@@ -70382,13 +70375,13 @@
         <v>14</v>
       </c>
       <c r="C2929" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2929" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G2929" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2930" spans="1:10" x14ac:dyDescent="0.45">
@@ -70399,13 +70392,13 @@
         <v>15</v>
       </c>
       <c r="C2930" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2930" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G2930" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2931" spans="1:10" x14ac:dyDescent="0.45">
@@ -70416,13 +70409,13 @@
         <v>16</v>
       </c>
       <c r="C2931" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2931" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G2931" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2932" spans="1:10" x14ac:dyDescent="0.45">
@@ -70433,13 +70426,13 @@
         <v>17</v>
       </c>
       <c r="C2932" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2932" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="G2932" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2933" spans="1:10" x14ac:dyDescent="0.45">
@@ -70450,10 +70443,10 @@
         <v>18</v>
       </c>
       <c r="C2933" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2933" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G2933">
         <v>44</v>
@@ -70473,10 +70466,10 @@
         <v>19</v>
       </c>
       <c r="C2934" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2934" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G2934">
         <v>47</v>
@@ -70490,10 +70483,10 @@
         <v>20</v>
       </c>
       <c r="C2935" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2935" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G2935">
         <v>84</v>
@@ -70510,10 +70503,10 @@
         <v>21</v>
       </c>
       <c r="C2936" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2936" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G2936">
         <v>84</v>
@@ -70530,10 +70523,10 @@
         <v>22</v>
       </c>
       <c r="C2937" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2937" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G2937">
         <v>45</v>
@@ -70553,10 +70546,10 @@
         <v>23</v>
       </c>
       <c r="C2938" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2938" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G2938">
         <v>44</v>
@@ -70576,10 +70569,10 @@
         <v>24</v>
       </c>
       <c r="C2939" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2939" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="G2939">
         <v>46</v>
@@ -70599,10 +70592,10 @@
         <v>25</v>
       </c>
       <c r="C2940" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2940" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G2940">
         <v>48</v>
@@ -70622,10 +70615,10 @@
         <v>26</v>
       </c>
       <c r="C2941" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2941" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G2941">
         <v>48</v>
@@ -70645,10 +70638,10 @@
         <v>27</v>
       </c>
       <c r="C2942" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2942" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G2942">
         <v>47</v>
@@ -70662,10 +70655,10 @@
         <v>28</v>
       </c>
       <c r="C2943" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2943" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G2943">
         <v>155</v>
@@ -70679,10 +70672,10 @@
         <v>29</v>
       </c>
       <c r="C2944" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2944" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G2944">
         <v>48</v>
@@ -70702,10 +70695,10 @@
         <v>30</v>
       </c>
       <c r="C2945" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2945" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G2945">
         <v>48</v>
@@ -70725,10 +70718,10 @@
         <v>31</v>
       </c>
       <c r="C2946" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2946" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="G2946">
         <v>49</v>
@@ -70748,10 +70741,10 @@
         <v>32</v>
       </c>
       <c r="C2947" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2947" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="G2947">
         <v>49</v>
@@ -70771,10 +70764,10 @@
         <v>33</v>
       </c>
       <c r="C2948" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2948" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G2948">
         <v>49</v>
@@ -70794,10 +70787,10 @@
         <v>34</v>
       </c>
       <c r="C2949" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2949" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G2949">
         <v>88</v>
@@ -70817,10 +70810,10 @@
         <v>35</v>
       </c>
       <c r="C2950" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2950" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G2950">
         <v>121</v>
@@ -70834,10 +70827,10 @@
         <v>36</v>
       </c>
       <c r="C2951" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2951" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G2951">
         <v>120</v>
@@ -70857,10 +70850,10 @@
         <v>37</v>
       </c>
       <c r="C2952" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2952" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G2952">
         <v>119</v>
@@ -70880,10 +70873,10 @@
         <v>38</v>
       </c>
       <c r="C2953" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2953" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="G2953">
         <v>119</v>
@@ -70903,10 +70896,10 @@
         <v>39</v>
       </c>
       <c r="C2954" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2954" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G2954">
         <v>153</v>
@@ -70920,10 +70913,10 @@
         <v>40</v>
       </c>
       <c r="C2955" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2955" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G2955">
         <v>87</v>
@@ -70943,10 +70936,10 @@
         <v>41</v>
       </c>
       <c r="C2956" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2956" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G2956">
         <v>117</v>
@@ -70966,10 +70959,10 @@
         <v>42</v>
       </c>
       <c r="C2957" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2957" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G2957">
         <v>117</v>
@@ -70989,10 +70982,10 @@
         <v>43</v>
       </c>
       <c r="C2958" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2958" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="G2958">
         <v>117</v>
@@ -71012,10 +71005,10 @@
         <v>44</v>
       </c>
       <c r="C2959" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2959" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G2959">
         <v>118</v>
@@ -71029,10 +71022,10 @@
         <v>45</v>
       </c>
       <c r="C2960" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2960" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G2960">
         <v>144</v>
@@ -71046,10 +71039,10 @@
         <v>46</v>
       </c>
       <c r="C2961" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2961" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G2961">
         <v>145</v>
@@ -71069,10 +71062,10 @@
         <v>47</v>
       </c>
       <c r="C2962" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2962" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G2962">
         <v>145</v>
@@ -71092,10 +71085,10 @@
         <v>48</v>
       </c>
       <c r="C2963" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2963" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G2963">
         <v>146</v>
@@ -71109,10 +71102,10 @@
         <v>49</v>
       </c>
       <c r="C2964" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2964" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G2964">
         <v>154</v>
@@ -71132,10 +71125,10 @@
         <v>50</v>
       </c>
       <c r="C2965" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2965" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G2965">
         <v>154</v>
@@ -71155,10 +71148,10 @@
         <v>51</v>
       </c>
       <c r="C2966" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2966" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G2966">
         <v>154</v>
@@ -71178,10 +71171,10 @@
         <v>52</v>
       </c>
       <c r="C2967" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2967" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G2967">
         <v>154</v>
@@ -71201,10 +71194,10 @@
         <v>53</v>
       </c>
       <c r="C2968" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2968" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G2968">
         <v>88</v>
@@ -71224,10 +71217,10 @@
         <v>54</v>
       </c>
       <c r="C2969" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2969" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="G2969">
         <v>93</v>
@@ -71250,10 +71243,10 @@
         <v>55</v>
       </c>
       <c r="C2970" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2970" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="G2970">
         <v>91</v>
@@ -71279,10 +71272,10 @@
         <v>56</v>
       </c>
       <c r="C2971" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2971" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="G2971">
         <v>89</v>
@@ -71305,10 +71298,10 @@
         <v>57</v>
       </c>
       <c r="C2972" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2972" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G2972">
         <v>152</v>
@@ -71328,10 +71321,10 @@
         <v>58</v>
       </c>
       <c r="C2973" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2973" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G2973">
         <v>152</v>
@@ -71343,7 +71336,7 @@
         <v>2100</v>
       </c>
       <c r="K2973" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2974" spans="1:12" x14ac:dyDescent="0.45">
@@ -71354,10 +71347,10 @@
         <v>59</v>
       </c>
       <c r="C2974" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2974" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G2974">
         <v>152</v>
@@ -71377,10 +71370,10 @@
         <v>60</v>
       </c>
       <c r="C2975" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2975" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G2975">
         <v>152</v>
@@ -71400,10 +71393,10 @@
         <v>61</v>
       </c>
       <c r="C2976" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2976" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G2976">
         <v>95</v>
@@ -71426,10 +71419,10 @@
         <v>62</v>
       </c>
       <c r="C2977" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2977" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G2977">
         <v>162</v>
@@ -71443,10 +71436,10 @@
         <v>63</v>
       </c>
       <c r="C2978" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2978" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G2978">
         <v>163</v>
@@ -71460,10 +71453,10 @@
         <v>64</v>
       </c>
       <c r="C2979" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2979" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="G2979">
         <v>160</v>
@@ -71483,10 +71476,10 @@
         <v>65</v>
       </c>
       <c r="C2980" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2980" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="G2980">
         <v>161</v>
@@ -71500,10 +71493,10 @@
         <v>66</v>
       </c>
       <c r="C2981" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2981" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G2981">
         <v>160</v>
@@ -71523,10 +71516,10 @@
         <v>67</v>
       </c>
       <c r="C2982" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2982" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="G2982">
         <v>158</v>
@@ -71540,10 +71533,10 @@
         <v>68</v>
       </c>
       <c r="C2983" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2983" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="G2983">
         <v>91</v>
@@ -71563,10 +71556,10 @@
         <v>69</v>
       </c>
       <c r="C2984" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2984" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="G2984">
         <v>157</v>
@@ -71580,10 +71573,10 @@
         <v>70</v>
       </c>
       <c r="C2985" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2985" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="G2985">
         <v>156</v>
@@ -71597,10 +71590,10 @@
         <v>71</v>
       </c>
       <c r="C2986" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2986" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G2986">
         <v>90</v>
@@ -71614,10 +71607,10 @@
         <v>72</v>
       </c>
       <c r="C2987" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2987" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G2987">
         <v>94</v>
@@ -71631,10 +71624,10 @@
         <v>73</v>
       </c>
       <c r="C2988" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2988" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G2988">
         <v>87</v>
@@ -71654,10 +71647,10 @@
         <v>74</v>
       </c>
       <c r="C2989" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2989" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G2989">
         <v>87</v>
@@ -71677,10 +71670,10 @@
         <v>75</v>
       </c>
       <c r="C2990" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2990" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G2990">
         <v>85</v>
@@ -71703,10 +71696,10 @@
         <v>76</v>
       </c>
       <c r="C2991" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2991" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="G2991">
         <v>85</v>
@@ -71729,10 +71722,10 @@
         <v>77</v>
       </c>
       <c r="C2992" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2992" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G2992">
         <v>85</v>
@@ -71755,10 +71748,10 @@
         <v>78</v>
       </c>
       <c r="C2993" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2993" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G2993">
         <v>85</v>
@@ -71778,10 +71771,10 @@
         <v>79</v>
       </c>
       <c r="C2994" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2994" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="G2994">
         <v>85</v>
@@ -71801,10 +71794,10 @@
         <v>80</v>
       </c>
       <c r="C2995" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2995" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G2995">
         <v>85</v>
@@ -71827,10 +71820,10 @@
         <v>81</v>
       </c>
       <c r="C2996" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2996" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G2996">
         <v>148</v>
@@ -71850,10 +71843,10 @@
         <v>82</v>
       </c>
       <c r="C2997" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2997" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="G2997">
         <v>148</v>
@@ -71873,10 +71866,10 @@
         <v>83</v>
       </c>
       <c r="C2998" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2998" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="G2998">
         <v>148</v>
@@ -71896,10 +71889,10 @@
         <v>84</v>
       </c>
       <c r="C2999" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F2999" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G2999">
         <v>148</v>
@@ -71919,10 +71912,10 @@
         <v>85</v>
       </c>
       <c r="C3000" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3000" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G3000">
         <v>149</v>
@@ -71934,7 +71927,7 @@
         <v>211110</v>
       </c>
       <c r="K3000" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="3001" spans="1:11" x14ac:dyDescent="0.45">
@@ -71945,10 +71938,10 @@
         <v>86</v>
       </c>
       <c r="C3001" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3001" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G3001">
         <v>149</v>
@@ -71968,10 +71961,10 @@
         <v>87</v>
       </c>
       <c r="C3002" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3002" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G3002">
         <v>149</v>
@@ -71991,10 +71984,10 @@
         <v>88</v>
       </c>
       <c r="C3003" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3003" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G3003">
         <v>45</v>
@@ -72014,10 +72007,10 @@
         <v>89</v>
       </c>
       <c r="C3004" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3004" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G3004">
         <v>45</v>
@@ -72037,10 +72030,10 @@
         <v>90</v>
       </c>
       <c r="C3005" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3005" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="G3005">
         <v>45</v>
@@ -72060,10 +72053,10 @@
         <v>91</v>
       </c>
       <c r="C3006" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3006" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G3006">
         <v>45</v>
@@ -72083,10 +72076,10 @@
         <v>92</v>
       </c>
       <c r="C3007" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3007" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G3007">
         <v>45</v>
@@ -72106,10 +72099,10 @@
         <v>93</v>
       </c>
       <c r="C3008" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3008" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G3008">
         <v>45</v>
@@ -72129,10 +72122,10 @@
         <v>94</v>
       </c>
       <c r="C3009" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3009" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="G3009">
         <v>86</v>
@@ -72155,10 +72148,10 @@
         <v>95</v>
       </c>
       <c r="C3010" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3010" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G3010">
         <v>86</v>
@@ -72181,10 +72174,10 @@
         <v>96</v>
       </c>
       <c r="C3011" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3011" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="G3011">
         <v>86</v>
@@ -72207,10 +72200,10 @@
         <v>97</v>
       </c>
       <c r="C3012" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3012" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G3012">
         <v>86</v>
@@ -72230,10 +72223,10 @@
         <v>98</v>
       </c>
       <c r="C3013" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3013" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="G3013">
         <v>86</v>
@@ -72253,10 +72246,10 @@
         <v>99</v>
       </c>
       <c r="C3014" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3014" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G3014">
         <v>86</v>
@@ -72279,10 +72272,10 @@
         <v>100</v>
       </c>
       <c r="C3015" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3015" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G3015">
         <v>46</v>
@@ -72302,10 +72295,10 @@
         <v>101</v>
       </c>
       <c r="C3016" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3016" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="G3016">
         <v>46</v>
@@ -72317,7 +72310,7 @@
         <v>2210</v>
       </c>
       <c r="K3016" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="3017" spans="1:11" x14ac:dyDescent="0.45">
@@ -72328,10 +72321,10 @@
         <v>102</v>
       </c>
       <c r="C3017" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3017" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="G3017">
         <v>46</v>
@@ -72351,10 +72344,10 @@
         <v>103</v>
       </c>
       <c r="C3018" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3018" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G3018">
         <v>46</v>
@@ -72374,10 +72367,10 @@
         <v>104</v>
       </c>
       <c r="C3019" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3019" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="G3019">
         <v>46</v>
@@ -72397,10 +72390,10 @@
         <v>105</v>
       </c>
       <c r="C3020" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3020" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="G3020">
         <v>46</v>
@@ -72420,10 +72413,10 @@
         <v>106</v>
       </c>
       <c r="C3021" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3021" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G3021">
         <v>46</v>
@@ -72435,7 +72428,7 @@
         <v>3110</v>
       </c>
       <c r="K3021" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="3022" spans="1:11" x14ac:dyDescent="0.45">
@@ -72446,10 +72439,10 @@
         <v>107</v>
       </c>
       <c r="C3022" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3022" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="G3022">
         <v>46</v>
@@ -72469,10 +72462,10 @@
         <v>108</v>
       </c>
       <c r="C3023" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3023" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="G3023">
         <v>46</v>
@@ -72492,10 +72485,10 @@
         <v>109</v>
       </c>
       <c r="C3024" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3024" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="G3024">
         <v>46</v>
@@ -72515,10 +72508,10 @@
         <v>110</v>
       </c>
       <c r="C3025" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3025" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="G3025">
         <v>46</v>
@@ -72538,10 +72531,10 @@
         <v>111</v>
       </c>
       <c r="C3026" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3026" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G3026">
         <v>85</v>
@@ -72564,10 +72557,10 @@
         <v>112</v>
       </c>
       <c r="C3027" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3027" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="G3027">
         <v>89</v>
@@ -72590,10 +72583,10 @@
         <v>113</v>
       </c>
       <c r="C3028" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3028" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="G3028">
         <v>89</v>
@@ -72613,10 +72606,10 @@
         <v>114</v>
       </c>
       <c r="C3029" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3029" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="G3029">
         <v>91</v>
@@ -72639,10 +72632,10 @@
         <v>115</v>
       </c>
       <c r="C3030" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3030" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="G3030">
         <v>91</v>
@@ -72665,10 +72658,10 @@
         <v>116</v>
       </c>
       <c r="C3031" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3031" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="G3031">
         <v>91</v>
@@ -72691,10 +72684,10 @@
         <v>117</v>
       </c>
       <c r="C3032" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3032" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="G3032">
         <v>91</v>
@@ -72714,10 +72707,10 @@
         <v>118</v>
       </c>
       <c r="C3033" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3033" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="G3033">
         <v>91</v>
@@ -72740,10 +72733,10 @@
         <v>119</v>
       </c>
       <c r="C3034" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3034" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G3034">
         <v>91</v>
@@ -72763,10 +72756,10 @@
         <v>120</v>
       </c>
       <c r="C3035" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3035" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G3035">
         <v>91</v>
@@ -72789,10 +72782,10 @@
         <v>121</v>
       </c>
       <c r="C3036" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3036" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G3036">
         <v>91</v>
@@ -72815,10 +72808,10 @@
         <v>122</v>
       </c>
       <c r="C3037" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3037" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="G3037">
         <v>95</v>
@@ -72841,10 +72834,10 @@
         <v>123</v>
       </c>
       <c r="C3038" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3038" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="G3038">
         <v>95</v>
@@ -72864,10 +72857,10 @@
         <v>124</v>
       </c>
       <c r="C3039" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3039" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G3039">
         <v>95</v>
@@ -72887,10 +72880,10 @@
         <v>125</v>
       </c>
       <c r="C3040" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3040" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="G3040">
         <v>93</v>
@@ -72913,10 +72906,10 @@
         <v>126</v>
       </c>
       <c r="C3041" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3041" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G3041">
         <v>93</v>
@@ -72939,10 +72932,10 @@
         <v>127</v>
       </c>
       <c r="C3042" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3042" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G3042">
         <v>92</v>
@@ -72956,10 +72949,10 @@
         <v>128</v>
       </c>
       <c r="C3043" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3043" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="G3043">
         <v>85</v>
@@ -72982,10 +72975,10 @@
         <v>129</v>
       </c>
       <c r="C3044" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3044" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G3044">
         <v>86</v>
@@ -73008,10 +73001,10 @@
         <v>130</v>
       </c>
       <c r="C3045" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3045" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="G3045">
         <v>85</v>
@@ -73034,10 +73027,10 @@
         <v>131</v>
       </c>
       <c r="C3046" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3046" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="G3046">
         <v>86</v>
@@ -73060,10 +73053,10 @@
         <v>132</v>
       </c>
       <c r="C3047" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3047" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="G3047">
         <v>85</v>
@@ -73086,10 +73079,10 @@
         <v>133</v>
       </c>
       <c r="C3048" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3048" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="G3048">
         <v>86</v>
@@ -73112,10 +73105,10 @@
         <v>134</v>
       </c>
       <c r="C3049" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F3049" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G3049">
         <v>86</v>
@@ -73138,10 +73131,10 @@
         <v>1</v>
       </c>
       <c r="C3051" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F3051" t="s">
         <v>1559</v>
-      </c>
-      <c r="F3051" t="s">
-        <v>1560</v>
       </c>
       <c r="G3051">
         <v>13</v>
@@ -73158,10 +73151,10 @@
         <v>2</v>
       </c>
       <c r="C3052" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3052" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="G3052">
         <v>164</v>
@@ -73178,10 +73171,10 @@
         <v>3</v>
       </c>
       <c r="C3053" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3053" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="G3053">
         <v>14</v>
@@ -73198,10 +73191,10 @@
         <v>4</v>
       </c>
       <c r="C3054" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3054" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="G3054">
         <v>12</v>
@@ -73215,10 +73208,10 @@
         <v>5</v>
       </c>
       <c r="C3055" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3055" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="G3055">
         <v>13</v>
@@ -73235,10 +73228,10 @@
         <v>6</v>
       </c>
       <c r="C3056" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3056" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="G3056">
         <v>12</v>
@@ -73252,10 +73245,10 @@
         <v>7</v>
       </c>
       <c r="C3057" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3057" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G3057">
         <v>14</v>
@@ -73272,10 +73265,10 @@
         <v>8</v>
       </c>
       <c r="C3058" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3058" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G3058">
         <v>138</v>
@@ -73292,10 +73285,10 @@
         <v>9</v>
       </c>
       <c r="C3059" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3059" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="G3059">
         <v>167</v>
@@ -73309,10 +73302,10 @@
         <v>10</v>
       </c>
       <c r="C3060" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3060" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="G3060">
         <v>166</v>
@@ -73326,10 +73319,10 @@
         <v>11</v>
       </c>
       <c r="C3061" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3061" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="G3061">
         <v>141</v>
@@ -73346,10 +73339,10 @@
         <v>12</v>
       </c>
       <c r="C3062" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3062" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G3062">
         <v>143</v>
@@ -73363,10 +73356,10 @@
         <v>13</v>
       </c>
       <c r="C3063" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3063" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G3063">
         <v>140</v>
@@ -73380,10 +73373,10 @@
         <v>14</v>
       </c>
       <c r="C3064" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3064" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G3064">
         <v>13</v>
@@ -73400,10 +73393,10 @@
         <v>15</v>
       </c>
       <c r="C3065" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3065" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G3065">
         <v>138</v>
@@ -73420,10 +73413,10 @@
         <v>16</v>
       </c>
       <c r="C3066" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3066" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="G3066">
         <v>137</v>
@@ -73437,10 +73430,10 @@
         <v>17</v>
       </c>
       <c r="C3067" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3067" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G3067">
         <v>13</v>
@@ -73457,10 +73450,10 @@
         <v>18</v>
       </c>
       <c r="C3068" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3068" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G3068">
         <v>138</v>
@@ -73477,10 +73470,10 @@
         <v>19</v>
       </c>
       <c r="C3069" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3069" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="G3069">
         <v>13</v>
@@ -73497,10 +73490,10 @@
         <v>20</v>
       </c>
       <c r="C3070" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3070" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="G3070">
         <v>165</v>
@@ -73514,10 +73507,10 @@
         <v>21</v>
       </c>
       <c r="C3071" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3071" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="G3071">
         <v>14</v>
@@ -73534,10 +73527,10 @@
         <v>22</v>
       </c>
       <c r="C3072" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3072" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="G3072">
         <v>14</v>
@@ -73554,10 +73547,10 @@
         <v>23</v>
       </c>
       <c r="C3073" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3073" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="G3073">
         <v>137</v>
@@ -73571,10 +73564,10 @@
         <v>24</v>
       </c>
       <c r="C3074" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3074" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="G3074">
         <v>142</v>
@@ -73588,10 +73581,10 @@
         <v>25</v>
       </c>
       <c r="C3075" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3075" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="G3075">
         <v>12</v>
@@ -73605,10 +73598,10 @@
         <v>26</v>
       </c>
       <c r="C3076" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3076" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="G3076">
         <v>169</v>
@@ -73622,10 +73615,10 @@
         <v>27</v>
       </c>
       <c r="C3077" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3077" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="G3077">
         <v>12</v>
@@ -73639,10 +73632,10 @@
         <v>28</v>
       </c>
       <c r="C3078" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3078" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="G3078">
         <v>168</v>
@@ -73656,10 +73649,10 @@
         <v>29</v>
       </c>
       <c r="C3079" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F3079" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="G3079">
         <v>12</v>
@@ -73673,10 +73666,10 @@
         <v>1</v>
       </c>
       <c r="C3081" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F3081" t="s">
         <v>1588</v>
-      </c>
-      <c r="F3081" t="s">
-        <v>1589</v>
       </c>
       <c r="G3081">
         <v>87</v>
@@ -73696,10 +73689,10 @@
         <v>2</v>
       </c>
       <c r="C3082" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3082" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="G3082">
         <v>85</v>
@@ -73722,10 +73715,10 @@
         <v>3</v>
       </c>
       <c r="C3083" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3083" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="G3083">
         <v>86</v>
@@ -73748,10 +73741,10 @@
         <v>4</v>
       </c>
       <c r="C3084" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3084" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G3084">
         <v>84</v>
@@ -73768,10 +73761,10 @@
         <v>5</v>
       </c>
       <c r="C3085" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3085" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="G3085">
         <v>84</v>
@@ -73788,10 +73781,10 @@
         <v>6</v>
       </c>
       <c r="C3086" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3086" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="G3086">
         <v>86</v>
@@ -73814,10 +73807,10 @@
         <v>7</v>
       </c>
       <c r="C3087" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3087" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="G3087">
         <v>85</v>
@@ -73840,10 +73833,10 @@
         <v>8</v>
       </c>
       <c r="C3088" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3088" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="G3088">
         <v>85</v>
@@ -73863,10 +73856,10 @@
         <v>9</v>
       </c>
       <c r="C3089" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3089" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="G3089">
         <v>85</v>
@@ -73889,10 +73882,10 @@
         <v>10</v>
       </c>
       <c r="C3090" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3090" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="G3090">
         <v>86</v>
@@ -73915,10 +73908,10 @@
         <v>11</v>
       </c>
       <c r="C3091" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3091" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G3091">
         <v>85</v>
@@ -73941,10 +73934,10 @@
         <v>12</v>
       </c>
       <c r="C3092" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3092" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="G3092">
         <v>156</v>
@@ -73958,10 +73951,10 @@
         <v>13</v>
       </c>
       <c r="C3093" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3093" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="G3093">
         <v>157</v>
@@ -73975,10 +73968,10 @@
         <v>14</v>
       </c>
       <c r="C3094" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3094" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="G3094">
         <v>91</v>
@@ -74001,10 +73994,10 @@
         <v>15</v>
       </c>
       <c r="C3095" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3095" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="G3095">
         <v>95</v>
@@ -74027,10 +74020,10 @@
         <v>16</v>
       </c>
       <c r="C3096" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3096" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="G3096">
         <v>158</v>
@@ -74044,10 +74037,10 @@
         <v>17</v>
       </c>
       <c r="C3097" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3097" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="G3097">
         <v>87</v>
@@ -74067,10 +74060,10 @@
         <v>18</v>
       </c>
       <c r="C3098" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3098" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="G3098">
         <v>87</v>
@@ -74090,10 +74083,10 @@
         <v>19</v>
       </c>
       <c r="C3099" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3099" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="G3099">
         <v>87</v>
@@ -74113,10 +74106,10 @@
         <v>20</v>
       </c>
       <c r="C3100" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3100" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G3100">
         <v>85</v>
@@ -74139,10 +74132,10 @@
         <v>21</v>
       </c>
       <c r="C3101" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3101" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="G3101">
         <v>85</v>
@@ -74165,10 +74158,10 @@
         <v>22</v>
       </c>
       <c r="C3102" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3102" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="G3102">
         <v>85</v>
@@ -74191,10 +74184,10 @@
         <v>23</v>
       </c>
       <c r="C3103" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3103" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G3103">
         <v>85</v>
@@ -74217,10 +74210,10 @@
         <v>24</v>
       </c>
       <c r="C3104" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3104" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="G3104">
         <v>85</v>
@@ -74240,10 +74233,10 @@
         <v>25</v>
       </c>
       <c r="C3105" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3105" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="G3105">
         <v>85</v>
@@ -74266,10 +74259,10 @@
         <v>26</v>
       </c>
       <c r="C3106" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3106" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="G3106">
         <v>85</v>
@@ -74292,10 +74285,10 @@
         <v>27</v>
       </c>
       <c r="C3107" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3107" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G3107">
         <v>161</v>
@@ -74309,10 +74302,10 @@
         <v>28</v>
       </c>
       <c r="C3108" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3108" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="G3108">
         <v>160</v>
@@ -74332,10 +74325,10 @@
         <v>29</v>
       </c>
       <c r="C3109" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3109" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="G3109">
         <v>160</v>
@@ -74355,10 +74348,10 @@
         <v>30</v>
       </c>
       <c r="C3110" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3110" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="G3110">
         <v>88</v>
@@ -74381,10 +74374,10 @@
         <v>31</v>
       </c>
       <c r="C3111" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3111" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="G3111">
         <v>90</v>
@@ -74401,10 +74394,10 @@
         <v>32</v>
       </c>
       <c r="C3112" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3112" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="G3112">
         <v>89</v>
@@ -74427,10 +74420,10 @@
         <v>33</v>
       </c>
       <c r="C3113" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3113" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="G3113">
         <v>88</v>
@@ -74450,10 +74443,10 @@
         <v>34</v>
       </c>
       <c r="C3114" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3114" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="G3114">
         <v>94</v>
@@ -74467,10 +74460,10 @@
         <v>35</v>
       </c>
       <c r="C3115" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3115" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="G3115">
         <v>93</v>
@@ -74493,10 +74486,10 @@
         <v>36</v>
       </c>
       <c r="C3116" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3116" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="G3116">
         <v>162</v>
@@ -74510,10 +74503,10 @@
         <v>37</v>
       </c>
       <c r="C3117" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3117" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G3117">
         <v>84</v>
@@ -74527,10 +74520,10 @@
         <v>38</v>
       </c>
       <c r="C3118" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F3118" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="G3118">
         <v>163</v>
